--- a/database/sicaf.xlsx
+++ b/database/sicaf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="152">
   <si>
     <t>uasg</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Serviço de Manutenção aparelhos de ar-condicionado</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
   <si>
     <t>Serviço de manutenção preventiva com lavagem geral e lubrificação das condensadoras e evaporadoras de condicionadores de ar tipo split de 7.000 a 10.000 btu´s.</t>
@@ -962,8 +965,14 @@
       <c r="I2">
         <v>1</v>
       </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
       <c r="L2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M2">
         <v>110.35</v>
@@ -972,10 +981,10 @@
         <v>109</v>
       </c>
       <c r="O2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q2">
         <v>41</v>
@@ -993,37 +1002,37 @@
         <v>62.84549161758042</v>
       </c>
       <c r="Y2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -1051,8 +1060,14 @@
       <c r="I3">
         <v>2</v>
       </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
       <c r="L3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M3">
         <v>172.6</v>
@@ -1061,10 +1076,10 @@
         <v>450</v>
       </c>
       <c r="O3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q3">
         <v>100</v>
@@ -1082,37 +1097,37 @@
         <v>42.06257242178447</v>
       </c>
       <c r="Y3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AD3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AE3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AH3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AI3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -1140,8 +1155,14 @@
       <c r="I4">
         <v>3</v>
       </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
       <c r="L4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M4">
         <v>325.5</v>
@@ -1150,10 +1171,10 @@
         <v>189</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q4">
         <v>49</v>
@@ -1171,37 +1192,37 @@
         <v>84.94623655913979</v>
       </c>
       <c r="Y4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1229,8 +1250,14 @@
       <c r="I5">
         <v>4</v>
       </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
       <c r="L5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M5">
         <v>287.86</v>
@@ -1239,10 +1266,10 @@
         <v>178</v>
       </c>
       <c r="O5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q5">
         <v>201.5</v>
@@ -1260,37 +1287,37 @@
         <v>30.00069478218579</v>
       </c>
       <c r="Y5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AE5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AH5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AI5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1318,8 +1345,14 @@
       <c r="I6">
         <v>5</v>
       </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
       <c r="L6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M6">
         <v>173.98</v>
@@ -1328,10 +1361,10 @@
         <v>109</v>
       </c>
       <c r="O6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q6">
         <v>75</v>
@@ -1349,37 +1382,37 @@
         <v>56.89159673525693</v>
       </c>
       <c r="Y6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1407,8 +1440,14 @@
       <c r="I7">
         <v>6</v>
       </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
       <c r="L7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M7">
         <v>354.33</v>
@@ -1417,10 +1456,10 @@
         <v>48</v>
       </c>
       <c r="O7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q7">
         <v>85</v>
@@ -1438,37 +1477,37 @@
         <v>76.01106313323737</v>
       </c>
       <c r="Y7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1496,8 +1535,14 @@
       <c r="I8">
         <v>7</v>
       </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>39</v>
+      </c>
       <c r="L8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8">
         <v>257</v>
@@ -1506,10 +1551,10 @@
         <v>238</v>
       </c>
       <c r="O8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q8">
         <v>75</v>
@@ -1527,37 +1572,37 @@
         <v>70.81712062256808</v>
       </c>
       <c r="Y8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1585,8 +1630,14 @@
       <c r="I9">
         <v>8</v>
       </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>39</v>
+      </c>
       <c r="L9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M9">
         <v>228.31</v>
@@ -1595,10 +1646,10 @@
         <v>87</v>
       </c>
       <c r="O9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q9">
         <v>110</v>
@@ -1616,37 +1667,37 @@
         <v>51.81989400376681</v>
       </c>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1674,8 +1725,14 @@
       <c r="I10">
         <v>9</v>
       </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>39</v>
+      </c>
       <c r="L10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M10">
         <v>453.76</v>
@@ -1684,10 +1741,10 @@
         <v>50</v>
       </c>
       <c r="O10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q10">
         <v>99</v>
@@ -1705,37 +1762,37 @@
         <v>78.18229901269393</v>
       </c>
       <c r="Y10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1763,8 +1820,14 @@
       <c r="I11">
         <v>10</v>
       </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>39</v>
+      </c>
       <c r="L11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M11">
         <v>456.08</v>
@@ -1773,10 +1836,10 @@
         <v>35</v>
       </c>
       <c r="O11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q11">
         <v>60</v>
@@ -1794,37 +1857,37 @@
         <v>86.84441326083143</v>
       </c>
       <c r="Y11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1852,8 +1915,14 @@
       <c r="I12">
         <v>11</v>
       </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>39</v>
+      </c>
       <c r="L12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M12">
         <v>260.67</v>
@@ -1862,10 +1931,10 @@
         <v>85</v>
       </c>
       <c r="O12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q12">
         <v>49</v>
@@ -1883,37 +1952,37 @@
         <v>81.20228641577474</v>
       </c>
       <c r="Y12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -1941,8 +2010,14 @@
       <c r="I13">
         <v>12</v>
       </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>39</v>
+      </c>
       <c r="L13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M13">
         <v>506.79</v>
@@ -1951,10 +2026,10 @@
         <v>236</v>
       </c>
       <c r="O13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q13">
         <v>230</v>
@@ -1972,37 +2047,37 @@
         <v>54.6163105033643</v>
       </c>
       <c r="Y13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2030,8 +2105,14 @@
       <c r="I14">
         <v>13</v>
       </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>39</v>
+      </c>
       <c r="L14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M14">
         <v>325.98</v>
@@ -2040,10 +2121,10 @@
         <v>100</v>
       </c>
       <c r="O14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q14">
         <v>150</v>
@@ -2061,37 +2142,37 @@
         <v>53.98490704951224</v>
       </c>
       <c r="Y14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2119,8 +2200,14 @@
       <c r="I15">
         <v>14</v>
       </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>39</v>
+      </c>
       <c r="L15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M15">
         <v>390.36</v>
@@ -2129,10 +2216,10 @@
         <v>148</v>
       </c>
       <c r="O15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q15">
         <v>180</v>
@@ -2150,37 +2237,37 @@
         <v>53.88871810636336</v>
       </c>
       <c r="Y15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2208,8 +2295,14 @@
       <c r="I16">
         <v>15</v>
       </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>39</v>
+      </c>
       <c r="L16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M16">
         <v>337.82</v>
@@ -2218,10 +2311,10 @@
         <v>65</v>
       </c>
       <c r="O16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q16">
         <v>120</v>
@@ -2239,37 +2332,37 @@
         <v>64.4781244449707</v>
       </c>
       <c r="Y16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2297,8 +2390,14 @@
       <c r="I17">
         <v>16</v>
       </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>39</v>
+      </c>
       <c r="L17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M17">
         <v>480.15</v>
@@ -2307,10 +2406,10 @@
         <v>34</v>
       </c>
       <c r="O17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q17">
         <v>79</v>
@@ -2328,37 +2427,37 @@
         <v>83.54680828907632</v>
       </c>
       <c r="Y17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2386,8 +2485,14 @@
       <c r="I18">
         <v>17</v>
       </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>39</v>
+      </c>
       <c r="L18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M18">
         <v>618.88</v>
@@ -2396,10 +2501,10 @@
         <v>139</v>
       </c>
       <c r="O18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q18">
         <v>433.2</v>
@@ -2417,37 +2522,37 @@
         <v>30.00258531540848</v>
       </c>
       <c r="Y18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AE18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AH18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AI18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -2475,8 +2580,14 @@
       <c r="I19">
         <v>18</v>
       </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>39</v>
+      </c>
       <c r="L19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M19">
         <v>629.3099999999999</v>
@@ -2485,10 +2596,10 @@
         <v>89</v>
       </c>
       <c r="O19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q19">
         <v>440.51</v>
@@ -2506,37 +2617,37 @@
         <v>30.00111232937661</v>
       </c>
       <c r="Y19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AE19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AH19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AI19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -2564,8 +2675,14 @@
       <c r="I20">
         <v>19</v>
       </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>39</v>
+      </c>
       <c r="L20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M20">
         <v>1286.22</v>
@@ -2574,10 +2691,10 @@
         <v>39</v>
       </c>
       <c r="O20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q20">
         <v>900.35</v>
@@ -2595,37 +2712,37 @@
         <v>30.00031098878886</v>
       </c>
       <c r="Y20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AE20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AH20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AI20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -2653,8 +2770,14 @@
       <c r="I21">
         <v>20</v>
       </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>39</v>
+      </c>
       <c r="L21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21">
         <v>2021.5</v>
@@ -2663,10 +2786,10 @@
         <v>37</v>
       </c>
       <c r="O21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q21">
         <v>1415.5</v>
@@ -2684,37 +2807,37 @@
         <v>29.97773930249814</v>
       </c>
       <c r="Y21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AE21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AH21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AI21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -2742,8 +2865,14 @@
       <c r="I22">
         <v>21</v>
       </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>39</v>
+      </c>
       <c r="L22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M22">
         <v>219.68</v>
@@ -2752,10 +2881,10 @@
         <v>68</v>
       </c>
       <c r="O22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q22">
         <v>153.77</v>
@@ -2773,37 +2902,37 @@
         <v>30.00273124544792</v>
       </c>
       <c r="Y22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AE22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AH22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AI22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -2831,8 +2960,14 @@
       <c r="I23">
         <v>22</v>
       </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>39</v>
+      </c>
       <c r="L23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M23">
         <v>224.08</v>
@@ -2841,10 +2976,10 @@
         <v>285</v>
       </c>
       <c r="O23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q23">
         <v>69</v>
@@ -2862,37 +2997,37 @@
         <v>69.20742591931453</v>
       </c>
       <c r="Y23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -2920,8 +3055,14 @@
       <c r="I24">
         <v>23</v>
       </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>39</v>
+      </c>
       <c r="L24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M24">
         <v>84.90000000000001</v>
@@ -2930,10 +3071,10 @@
         <v>84</v>
       </c>
       <c r="O24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q24">
         <v>37</v>
@@ -2951,37 +3092,37 @@
         <v>56.41931684334512</v>
       </c>
       <c r="Y24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -3009,8 +3150,14 @@
       <c r="I25">
         <v>24</v>
       </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>39</v>
+      </c>
       <c r="L25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M25">
         <v>580.67</v>
@@ -3019,10 +3166,10 @@
         <v>115</v>
       </c>
       <c r="O25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q25">
         <v>400</v>
@@ -3040,37 +3187,37 @@
         <v>31.11405789863433</v>
       </c>
       <c r="Y25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AD25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AE25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AH25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AI25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -3098,8 +3245,14 @@
       <c r="I26">
         <v>25</v>
       </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>39</v>
+      </c>
       <c r="L26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M26">
         <v>650.27</v>
@@ -3108,10 +3261,10 @@
         <v>62</v>
       </c>
       <c r="O26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q26">
         <v>97</v>
@@ -3129,37 +3282,37 @@
         <v>85.0831193196672</v>
       </c>
       <c r="Y26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -3187,8 +3340,14 @@
       <c r="I27">
         <v>26</v>
       </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>39</v>
+      </c>
       <c r="L27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M27">
         <v>296.68</v>
@@ -3197,10 +3356,10 @@
         <v>38</v>
       </c>
       <c r="O27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q27">
         <v>290</v>
@@ -3218,37 +3377,37 @@
         <v>2.251584198462997</v>
       </c>
       <c r="Y27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AC27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AD27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AE27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AH27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -3276,8 +3435,14 @@
       <c r="I28">
         <v>27</v>
       </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>39</v>
+      </c>
       <c r="L28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M28">
         <v>408.84</v>
@@ -3286,10 +3451,10 @@
         <v>170</v>
       </c>
       <c r="O28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q28">
         <v>166</v>
@@ -3307,37 +3472,37 @@
         <v>59.39731924469229</v>
       </c>
       <c r="Y28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -3365,8 +3530,14 @@
       <c r="I29">
         <v>28</v>
       </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
+        <v>39</v>
+      </c>
       <c r="L29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M29">
         <v>573.17</v>
@@ -3375,10 +3546,10 @@
         <v>90</v>
       </c>
       <c r="O29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q29">
         <v>552.05</v>
@@ -3396,37 +3567,37 @@
         <v>3.684770661409353</v>
       </c>
       <c r="Y29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AC29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AD29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AE29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AI29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -3454,8 +3625,14 @@
       <c r="I30">
         <v>29</v>
       </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>39</v>
+      </c>
       <c r="L30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M30">
         <v>584.17</v>
@@ -3464,10 +3641,10 @@
         <v>55</v>
       </c>
       <c r="O30" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q30">
         <v>200</v>
@@ -3485,37 +3662,37 @@
         <v>65.76339079377578</v>
       </c>
       <c r="Y30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AD30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AE30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AH30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AI30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -3543,8 +3720,14 @@
       <c r="I31">
         <v>30</v>
       </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>39</v>
+      </c>
       <c r="L31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M31">
         <v>581.77</v>
@@ -3553,10 +3736,10 @@
         <v>53</v>
       </c>
       <c r="O31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q31">
         <v>220</v>
@@ -3574,37 +3757,37 @@
         <v>62.18436839300754</v>
       </c>
       <c r="Y31" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AD31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AE31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AH31" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AI31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:35">
@@ -3632,8 +3815,14 @@
       <c r="I32">
         <v>31</v>
       </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>39</v>
+      </c>
       <c r="L32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M32">
         <v>518.5</v>
@@ -3642,10 +3831,10 @@
         <v>72</v>
       </c>
       <c r="O32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q32">
         <v>269</v>
@@ -3663,37 +3852,37 @@
         <v>48.11957569913211</v>
       </c>
       <c r="Y32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:35">
@@ -3721,8 +3910,14 @@
       <c r="I33">
         <v>32</v>
       </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>39</v>
+      </c>
       <c r="L33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M33">
         <v>108.71</v>
@@ -3731,10 +3926,10 @@
         <v>363</v>
       </c>
       <c r="O33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q33">
         <v>65</v>
@@ -3752,37 +3947,37 @@
         <v>40.20789255818231</v>
       </c>
       <c r="Y33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -3810,8 +4005,14 @@
       <c r="I34">
         <v>33</v>
       </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>39</v>
+      </c>
       <c r="L34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M34">
         <v>225.77</v>
@@ -3820,10 +4021,10 @@
         <v>93</v>
       </c>
       <c r="O34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q34">
         <v>97</v>
@@ -3841,37 +4042,37 @@
         <v>57.03592151304425</v>
       </c>
       <c r="Y34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH34" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI34" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:35">
@@ -3899,8 +4100,14 @@
       <c r="I35">
         <v>34</v>
       </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>39</v>
+      </c>
       <c r="L35" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M35">
         <v>166.4</v>
@@ -3909,10 +4116,10 @@
         <v>142</v>
       </c>
       <c r="O35" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q35">
         <v>116.48</v>
@@ -3930,37 +4137,37 @@
         <v>30</v>
       </c>
       <c r="Y35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB35" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AE35" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AH35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AI35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:35">
@@ -3988,8 +4195,14 @@
       <c r="I36">
         <v>35</v>
       </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
+        <v>39</v>
+      </c>
       <c r="L36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M36">
         <v>326.44</v>
@@ -3998,10 +4211,10 @@
         <v>66</v>
       </c>
       <c r="O36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q36">
         <v>129</v>
@@ -4019,37 +4232,37 @@
         <v>60.48278397255238</v>
       </c>
       <c r="Y36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z36" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE36" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG36" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:35">
@@ -4077,8 +4290,14 @@
       <c r="I37">
         <v>36</v>
       </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>39</v>
+      </c>
       <c r="L37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M37">
         <v>100.28</v>
@@ -4087,10 +4306,10 @@
         <v>36</v>
       </c>
       <c r="O37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q37">
         <v>70.19</v>
@@ -4108,37 +4327,37 @@
         <v>30.00598324690866</v>
       </c>
       <c r="Y37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA37" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AE37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF37" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG37" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AH37" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AI37" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:35">
@@ -4166,8 +4385,14 @@
       <c r="I38">
         <v>37</v>
       </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>39</v>
+      </c>
       <c r="L38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M38">
         <v>119.83</v>
@@ -4176,10 +4401,10 @@
         <v>221</v>
       </c>
       <c r="O38" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P38" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q38">
         <v>83.88</v>
@@ -4197,37 +4422,37 @@
         <v>30.00083451556372</v>
       </c>
       <c r="Y38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z38" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB38" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AE38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG38" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AH38" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AI38" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:35">
@@ -4255,8 +4480,14 @@
       <c r="I39">
         <v>38</v>
       </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>39</v>
+      </c>
       <c r="L39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M39">
         <v>106.68</v>
@@ -4265,10 +4496,10 @@
         <v>84</v>
       </c>
       <c r="O39" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P39" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q39">
         <v>74.59999999999999</v>
@@ -4286,37 +4517,37 @@
         <v>30.07124109486315</v>
       </c>
       <c r="Y39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA39" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC39" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD39" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AE39" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF39" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG39" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AH39" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AI39" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:35">
@@ -4344,8 +4575,14 @@
       <c r="I40">
         <v>39</v>
       </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>39</v>
+      </c>
       <c r="L40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M40">
         <v>256.65</v>
@@ -4354,10 +4591,10 @@
         <v>50</v>
       </c>
       <c r="O40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P40" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q40">
         <v>179.65</v>
@@ -4375,37 +4612,37 @@
         <v>30.00194817845314</v>
       </c>
       <c r="Y40" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB40" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC40" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD40" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AE40" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF40" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AH40" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AI40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:35">
@@ -4433,8 +4670,14 @@
       <c r="I41">
         <v>40</v>
       </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>39</v>
+      </c>
       <c r="L41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M41">
         <v>251.51</v>
@@ -4443,10 +4686,10 @@
         <v>34</v>
       </c>
       <c r="O41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q41">
         <v>176.5</v>
@@ -4464,37 +4707,37 @@
         <v>29.82386386227187</v>
       </c>
       <c r="Y41" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB41" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC41" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD41" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AE41" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF41" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG41" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AH41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AI41" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:35">
@@ -4522,8 +4765,14 @@
       <c r="I42">
         <v>41</v>
       </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42" t="s">
+        <v>39</v>
+      </c>
       <c r="L42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M42">
         <v>68.88</v>
@@ -4532,10 +4781,10 @@
         <v>77</v>
       </c>
       <c r="O42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q42">
         <v>50</v>
@@ -4553,37 +4802,37 @@
         <v>27.40998838559814</v>
       </c>
       <c r="Y42" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z42" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA42" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC42" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AD42" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AE42" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG42" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AH42" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AI42" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:35">
@@ -4611,8 +4860,14 @@
       <c r="I43">
         <v>42</v>
       </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" t="s">
+        <v>39</v>
+      </c>
       <c r="L43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M43">
         <v>69.72</v>
@@ -4621,10 +4876,10 @@
         <v>397</v>
       </c>
       <c r="O43" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q43">
         <v>12</v>
@@ -4642,37 +4897,37 @@
         <v>82.78829604130809</v>
       </c>
       <c r="Y43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA43" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC43" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF43" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH43" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI43" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:35">
@@ -4700,8 +4955,14 @@
       <c r="I44">
         <v>43</v>
       </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44" t="s">
+        <v>39</v>
+      </c>
       <c r="L44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M44">
         <v>68.14</v>
@@ -4710,10 +4971,10 @@
         <v>100</v>
       </c>
       <c r="O44" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P44" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q44">
         <v>27</v>
@@ -4731,37 +4992,37 @@
         <v>60.3756970942178</v>
       </c>
       <c r="Y44" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z44" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA44" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB44" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC44" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD44" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE44" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF44" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG44" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH44" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI44" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:35">
@@ -4789,8 +5050,14 @@
       <c r="I45">
         <v>44</v>
       </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" t="s">
+        <v>39</v>
+      </c>
       <c r="L45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M45">
         <v>141.09</v>
@@ -4799,10 +5066,10 @@
         <v>147</v>
       </c>
       <c r="O45" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P45" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q45">
         <v>80</v>
@@ -4820,37 +5087,37 @@
         <v>43.2986037281168</v>
       </c>
       <c r="Y45" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z45" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA45" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB45" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC45" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AD45" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AE45" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF45" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG45" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AH45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AI45" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:35">
@@ -4878,8 +5145,14 @@
       <c r="I46">
         <v>45</v>
       </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46" t="s">
+        <v>39</v>
+      </c>
       <c r="L46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M46">
         <v>100.75</v>
@@ -4888,10 +5161,10 @@
         <v>73</v>
       </c>
       <c r="O46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P46" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q46">
         <v>90</v>
@@ -4909,37 +5182,37 @@
         <v>10.66997518610422</v>
       </c>
       <c r="Y46" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z46" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA46" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB46" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC46" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AD46" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AE46" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF46" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG46" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AH46" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AI46" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:35">
@@ -4967,8 +5240,14 @@
       <c r="I47">
         <v>46</v>
       </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47" t="s">
+        <v>39</v>
+      </c>
       <c r="L47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M47">
         <v>131.98</v>
@@ -4977,10 +5256,10 @@
         <v>41</v>
       </c>
       <c r="O47" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P47" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q47">
         <v>120</v>
@@ -4998,37 +5277,37 @@
         <v>9.077132898924066</v>
       </c>
       <c r="Y47" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z47" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA47" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB47" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AD47" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AE47" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF47" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG47" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AH47" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AI47" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:35">
@@ -5056,8 +5335,14 @@
       <c r="I48">
         <v>47</v>
       </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48" t="s">
+        <v>39</v>
+      </c>
       <c r="L48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M48">
         <v>131.93</v>
@@ -5066,10 +5351,10 @@
         <v>236</v>
       </c>
       <c r="O48" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P48" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q48">
         <v>120</v>
@@ -5087,37 +5372,37 @@
         <v>9.042674145380126</v>
       </c>
       <c r="Y48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z48" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA48" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AD48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AE48" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF48" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG48" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AH48" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AI48" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:35">
@@ -5142,8 +5427,14 @@
       <c r="I49">
         <v>48</v>
       </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49" t="s">
+        <v>39</v>
+      </c>
       <c r="L49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M49">
         <v>198.27</v>
@@ -5152,10 +5443,10 @@
         <v>96</v>
       </c>
       <c r="O49" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P49" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:35">
@@ -5180,8 +5471,14 @@
       <c r="I50">
         <v>49</v>
       </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
+        <v>39</v>
+      </c>
       <c r="L50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M50">
         <v>374.67</v>
@@ -5190,10 +5487,10 @@
         <v>55</v>
       </c>
       <c r="O50" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P50" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:35">
@@ -5221,8 +5518,14 @@
       <c r="I51">
         <v>50</v>
       </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51" t="s">
+        <v>39</v>
+      </c>
       <c r="L51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M51">
         <v>133.94</v>
@@ -5231,10 +5534,10 @@
         <v>42</v>
       </c>
       <c r="O51" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q51">
         <v>93.75</v>
@@ -5252,37 +5555,37 @@
         <v>30.00597282365238</v>
       </c>
       <c r="Y51" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z51" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA51" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB51" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC51" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD51" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AE51" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF51" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG51" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AH51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AI51" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:35">
@@ -5310,8 +5613,14 @@
       <c r="I52">
         <v>51</v>
       </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52" t="s">
+        <v>39</v>
+      </c>
       <c r="L52" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M52">
         <v>291.63</v>
@@ -5320,10 +5629,10 @@
         <v>78</v>
       </c>
       <c r="O52" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P52" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q52">
         <v>180</v>
@@ -5341,37 +5650,37 @@
         <v>38.27795494290711</v>
       </c>
       <c r="Y52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z52" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA52" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB52" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC52" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AD52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AE52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG52" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AH52" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AI52" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:35">
@@ -5399,8 +5708,14 @@
       <c r="I53">
         <v>52</v>
       </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53" t="s">
+        <v>39</v>
+      </c>
       <c r="L53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M53">
         <v>167.17</v>
@@ -5409,10 +5724,10 @@
         <v>373</v>
       </c>
       <c r="O53" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P53" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q53">
         <v>117</v>
@@ -5430,37 +5745,37 @@
         <v>30.01136567565951</v>
       </c>
       <c r="Y53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z53" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA53" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB53" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC53" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD53" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AE53" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF53" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG53" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AH53" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AI53" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:35">
@@ -5488,8 +5803,14 @@
       <c r="I54">
         <v>53</v>
       </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54" t="s">
+        <v>39</v>
+      </c>
       <c r="L54" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M54">
         <v>138.69</v>
@@ -5498,10 +5819,10 @@
         <v>102</v>
       </c>
       <c r="O54" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P54" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q54">
         <v>97.08</v>
@@ -5519,37 +5840,37 @@
         <v>30.0021630975557</v>
       </c>
       <c r="Y54" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z54" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA54" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB54" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC54" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD54" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AE54" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF54" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG54" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AH54" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AI54" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:35">
@@ -5577,8 +5898,14 @@
       <c r="I55">
         <v>54</v>
       </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55" t="s">
+        <v>39</v>
+      </c>
       <c r="L55" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M55">
         <v>141.07</v>
@@ -5587,10 +5914,10 @@
         <v>149</v>
       </c>
       <c r="O55" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P55" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q55">
         <v>99</v>
@@ -5608,37 +5935,37 @@
         <v>29.8220741475863</v>
       </c>
       <c r="Y55" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z55" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA55" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB55" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC55" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD55" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AE55" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF55" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG55" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AH55" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AI55" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:35">
@@ -5666,8 +5993,14 @@
       <c r="I56">
         <v>55</v>
       </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56" t="s">
+        <v>39</v>
+      </c>
       <c r="L56" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M56">
         <v>142.95</v>
@@ -5676,10 +6009,10 @@
         <v>68</v>
       </c>
       <c r="O56" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P56" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q56">
         <v>100.06</v>
@@ -5697,37 +6030,37 @@
         <v>30.00349772647778</v>
       </c>
       <c r="Y56" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z56" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA56" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB56" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC56" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD56" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AE56" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF56" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG56" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AH56" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AI56" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:35">
@@ -5755,8 +6088,14 @@
       <c r="I57">
         <v>56</v>
       </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57" t="s">
+        <v>39</v>
+      </c>
       <c r="L57" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M57">
         <v>280.98</v>
@@ -5765,10 +6104,10 @@
         <v>41</v>
       </c>
       <c r="O57" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P57" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q57">
         <v>185</v>
@@ -5786,37 +6125,37 @@
         <v>34.15901487650367</v>
       </c>
       <c r="Y57" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z57" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA57" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB57" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC57" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AD57" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AE57" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF57" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG57" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AH57" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AI57" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:35">
@@ -5844,8 +6183,14 @@
       <c r="I58">
         <v>57</v>
       </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58" t="s">
+        <v>39</v>
+      </c>
       <c r="L58" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M58">
         <v>111.82</v>
@@ -5854,10 +6199,10 @@
         <v>227</v>
       </c>
       <c r="O58" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P58" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q58">
         <v>79</v>
@@ -5875,37 +6220,37 @@
         <v>29.35074226435342</v>
       </c>
       <c r="Y58" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z58" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA58" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB58" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC58" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD58" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AE58" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF58" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG58" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AH58" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AI58" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:35">
@@ -5933,8 +6278,14 @@
       <c r="I59">
         <v>58</v>
       </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59" t="s">
+        <v>39</v>
+      </c>
       <c r="L59" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M59">
         <v>394.27</v>
@@ -5943,10 +6294,10 @@
         <v>91</v>
       </c>
       <c r="O59" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q59">
         <v>276</v>
@@ -5964,37 +6315,37 @@
         <v>29.99721003373323</v>
       </c>
       <c r="Y59" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z59" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA59" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB59" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC59" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD59" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AE59" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF59" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG59" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AH59" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AI59" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:35">
@@ -6022,8 +6373,14 @@
       <c r="I60">
         <v>59</v>
       </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60" t="s">
+        <v>39</v>
+      </c>
       <c r="L60" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M60">
         <v>211.1</v>
@@ -6032,10 +6389,10 @@
         <v>53</v>
       </c>
       <c r="O60" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P60" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q60">
         <v>148</v>
@@ -6053,37 +6410,37 @@
         <v>29.89104689720511</v>
       </c>
       <c r="Y60" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z60" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA60" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB60" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC60" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD60" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AE60" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF60" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG60" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AH60" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AI60" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:35">
@@ -6111,8 +6468,14 @@
       <c r="I61">
         <v>60</v>
       </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61" t="s">
+        <v>39</v>
+      </c>
       <c r="L61" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M61">
         <v>278.85</v>
@@ -6121,10 +6484,10 @@
         <v>41</v>
       </c>
       <c r="O61" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P61" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q61">
         <v>195</v>
@@ -6142,37 +6505,37 @@
         <v>30.06993006993008</v>
       </c>
       <c r="Y61" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z61" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA61" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB61" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC61" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD61" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AE61" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF61" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG61" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AH61" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AI61" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:35">
@@ -6200,8 +6563,14 @@
       <c r="I62">
         <v>61</v>
       </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62" t="s">
+        <v>39</v>
+      </c>
       <c r="L62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M62">
         <v>119.89</v>
@@ -6210,10 +6579,10 @@
         <v>80</v>
       </c>
       <c r="O62" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P62" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q62">
         <v>83.90000000000001</v>
@@ -6231,37 +6600,37 @@
         <v>30.01918425223121</v>
       </c>
       <c r="Y62" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z62" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA62" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB62" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC62" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD62" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AE62" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF62" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG62" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AH62" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AI62" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:35">
@@ -6289,8 +6658,14 @@
       <c r="I63">
         <v>62</v>
       </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63" t="s">
+        <v>39</v>
+      </c>
       <c r="L63" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M63">
         <v>134.48</v>
@@ -6299,10 +6674,10 @@
         <v>402</v>
       </c>
       <c r="O63" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P63" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q63">
         <v>94.13</v>
@@ -6320,37 +6695,37 @@
         <v>30.00446162998215</v>
       </c>
       <c r="Y63" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z63" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA63" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB63" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC63" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD63" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AE63" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF63" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG63" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AH63" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AI63" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:35">
@@ -6378,8 +6753,14 @@
       <c r="I64">
         <v>63</v>
       </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64" t="s">
+        <v>39</v>
+      </c>
       <c r="L64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M64">
         <v>157.48</v>
@@ -6388,10 +6769,10 @@
         <v>120</v>
       </c>
       <c r="O64" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P64" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q64">
         <v>110.23</v>
@@ -6409,37 +6790,37 @@
         <v>30.00381000762001</v>
       </c>
       <c r="Y64" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z64" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA64" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB64" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC64" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD64" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AE64" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF64" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG64" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AH64" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AI64" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:35">
@@ -6467,8 +6848,14 @@
       <c r="I65">
         <v>64</v>
       </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65" t="s">
+        <v>39</v>
+      </c>
       <c r="L65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M65">
         <v>174.79</v>
@@ -6477,10 +6864,10 @@
         <v>151</v>
       </c>
       <c r="O65" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P65" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q65">
         <v>122.35</v>
@@ -6498,37 +6885,37 @@
         <v>30.00171634532868</v>
       </c>
       <c r="Y65" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z65" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA65" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB65" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC65" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD65" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AE65" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF65" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG65" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AH65" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AI65" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:35">
@@ -6556,8 +6943,14 @@
       <c r="I66">
         <v>65</v>
       </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66" t="s">
+        <v>39</v>
+      </c>
       <c r="L66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M66">
         <v>163.15</v>
@@ -6566,10 +6959,10 @@
         <v>72</v>
       </c>
       <c r="O66" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P66" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q66">
         <v>114.2</v>
@@ -6587,69 +6980,93 @@
         <v>30.00306466441924</v>
       </c>
       <c r="Y66" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z66" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA66" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AB66" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC66" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD66" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AE66" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF66" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG66" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AH66" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AI66" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:35">
       <c r="I67">
         <v>66</v>
       </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67" t="s">
+        <v>39</v>
+      </c>
       <c r="L67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:35">
       <c r="I68">
         <v>67</v>
       </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68" t="s">
+        <v>39</v>
+      </c>
       <c r="L68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:35">
       <c r="I69">
         <v>68</v>
       </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69" t="s">
+        <v>39</v>
+      </c>
       <c r="L69" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:35">
       <c r="I70">
         <v>69</v>
       </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70" t="s">
+        <v>39</v>
+      </c>
       <c r="L70" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/database/sicaf.xlsx
+++ b/database/sicaf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="191">
   <si>
     <t>uasg</t>
   </si>
@@ -121,172 +121,151 @@
     <t>responsavel_legal</t>
   </si>
   <si>
-    <t>CENTRO DE INTENDENCIA DA MARINHA NITEROI</t>
-  </si>
-  <si>
-    <t>CARLOS ROBERTO KERBER</t>
+    <t>MM/COMANDO DO 7 DISTRITO NAVAL/DF</t>
+  </si>
+  <si>
+    <t>THIAGO MARTINS AMORIM</t>
   </si>
   <si>
     <t>SRP - Registro de Preço</t>
   </si>
   <si>
-    <t>Processo Licitatório para Aquisição de Materiais Elétricos</t>
-  </si>
-  <si>
-    <t>ARROZ BENEFICIADO</t>
-  </si>
-  <si>
-    <t>LEGUMINOSA</t>
-  </si>
-  <si>
-    <t>MACARRÃO</t>
-  </si>
-  <si>
-    <t>ÓLEO VEGETAL COMESTÍVEL</t>
-  </si>
-  <si>
-    <t>PEIXE EM CONSERVA</t>
-  </si>
-  <si>
-    <t>SAL</t>
-  </si>
-  <si>
-    <t>FARINHA DE TRIGO</t>
-  </si>
-  <si>
-    <t>FARINHA DE MILHO</t>
-  </si>
-  <si>
-    <t>MASSA DE TOMATE</t>
-  </si>
-  <si>
-    <t>TEMPERO</t>
-  </si>
-  <si>
-    <t>LEITE EM PÓ</t>
-  </si>
-  <si>
-    <t>ACHOCOLATADO</t>
-  </si>
-  <si>
-    <t>BISCOITO SALGADO</t>
-  </si>
-  <si>
-    <t>BISCOITO MAISENA</t>
-  </si>
-  <si>
-    <t>DOCE NÃO CONFEITADO</t>
-  </si>
-  <si>
-    <t>CREME DENTAL</t>
-  </si>
-  <si>
-    <t>SOLUÇÃO LIMPEZA MULTIUSO</t>
-  </si>
-  <si>
-    <t>DETERGENTE</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIÊNICO</t>
-  </si>
-  <si>
-    <t>ABSORVENTE HIGIÊNICO</t>
-  </si>
-  <si>
-    <t>ÁGUA SANITÁRIA</t>
-  </si>
-  <si>
-    <t>SABONETE</t>
-  </si>
-  <si>
-    <t>SABÃO PÓ</t>
-  </si>
-  <si>
-    <t>AÇÚCAR</t>
-  </si>
-  <si>
-    <t>CAFÉ</t>
-  </si>
-  <si>
-    <t>ESPONJA LIMPEZA</t>
-  </si>
-  <si>
-    <t>ARROZ BENEFICIADO, TIPO: AGULHINHA /BRANCO, SUBGRUPO: POLIDO, CLASSE: LONGO FINO, QUALIDADE: TIPO 1 (Pacote de 5kg)</t>
-  </si>
-  <si>
-    <t>LEGUMINOSA, VARIEDADE: FEIJÃO CARIOCA, TIPO: TIPO 1 (Pacote de 1kg)</t>
-  </si>
-  <si>
-    <t>MACARRÃO TEOR DE UMIDADE: MASSA SECA , BASE DA MASSA: DE SÊMOLA /SEMOLINA, INGREDIENTES ADICIONAIS: COM OVOS , APRESENTAÇÃO: ESPAGUETE (Pacote de 500g)</t>
-  </si>
-  <si>
-    <t>ÓLEO VEGETAL COMESTÍVEL, TIPO: PURO, ESPÉCIE VEGETAL: SOJA, TIPO QUALIDADE: TIPO 1 (Frasco de 900ml)</t>
-  </si>
-  <si>
-    <t>PEIXE EM CONSERVA, VARIEDADE: SARDINHA, APRESENTAÇÃO: DESCABEÇADA E EVISCERADA, MEIO DE   COBERTURA:   COM   ÓLEO COMESTÍVEL (Lata contendo o mínimo de 125g)</t>
-  </si>
-  <si>
-    <t>SAL, TIPO: REFINADO, APLICAÇÃO: ALIMENTÍCIA, TEOR MÁXIMO SÓDIO: 390 MG/G, ACIDEZ: 7,0 PH (Pacote de 1kg)</t>
-  </si>
-  <si>
-    <t>FARINHA DE TRIGO, GRUPO: INDUSTRIAL, TIPO: TIPO 1, ESPECIAL, INGREDIENTE   ADICIONAL:   SEM FERMENTO (Pacote de 1kg)</t>
-  </si>
-  <si>
-    <t>FARINHA DE MILHO, GRÃO: AMARELO, TIPO: FLOCADA, APRESENTAÇÃO: PRÉ- COZIDA, CARACTERÍSTICA ADICIONAL: TRANSGÊNICO, INGREDIENTE ADICIONAL: FORTIFICADA COM FERRO E ÁCIDO FÓLICO (Pacote de 500g)</t>
-  </si>
-  <si>
-    <t>MASSA DE TOMATE, TIPO: EXTRATO CONCENTRADO, COMPOSIÇÃO: TRADICIONAL, APRESENTAÇÃO: CREME (Embalagem de 340g)</t>
-  </si>
-  <si>
-    <t>TEMPERO, TIPO: ALHO E SAL, APRESENTAÇÃO: PASTA,  APLICAÇÃO: USO CULINÁRIO (Embalagem contendo o mínimo de 300g)</t>
-  </si>
-  <si>
-    <t>LEITE EM PÓ, ORIGEM: DE VACA, TEOR GORDURA: INTEGRAL, SOLUBILIDADE: INSTANTÂNEO (Embalagem contendo o mínimo de 400g)</t>
-  </si>
-  <si>
-    <t>ACHOCOLATADO, APRESENTAÇÃO: PÓ, SABOR: TRADICIONAL, CARACTERÍSTICA ADICIONAL: ENRIQUECIDO   COM   VITAMINAS (Embalagem de 400g)</t>
-  </si>
-  <si>
-    <t>BISCOITO, APRESENTAÇÃO: QUADRADO, CLASSIFICAÇÃO: SALGADO, TIPO: CREAM CRACKER (Peso mínimo 360g)</t>
-  </si>
-  <si>
-    <t>BISCOITO, SABOR: MAIZENA, CARACTERÍSTICAS ADICIONAIS: SEM LACTOSE, TIPO: BOLACHA, INGREDIENTES: SEM GORDURA TRANS (Peso mínimo no pacote: 400g)</t>
-  </si>
-  <si>
-    <t>DOCE NÃO CONFEITADO, TIPO: MASSA, SABOR: GOIABA, FORMA APRESENTAÇÃO: TABLETE (Embalagem contendo o mínimo de 300g)</t>
-  </si>
-  <si>
-    <t>DENTIFRÍCIO COMPOSIÇÃO BÁSICA: CREME DENTAL COM FLUOR ATIVO DE (1100 Ppm) , Tipo: Adulto (Embalagem contendo o mínimo de 70g)</t>
-  </si>
-  <si>
-    <t>SOLUÇÃO LIMPEZA MULTIUSO, COMPOSIÇÃO BÁSICA: AQUILBENZENO, SULFONATO DE SÓDIO, TENSOATIVO NÃO, ASPECTO FÍSICO: LÍQUIDO (Frasco de 500ml)</t>
-  </si>
-  <si>
-    <t>DETERGENTE COMPOSIÇÃO: DODECILBENZENO SULFONATO DE SÓDIO , APLICAÇÃO: LAVAGEM DE LOUÇAS , AROMA: INODORO, CARACTERÍSTICAS ADICIONAIS: PH 6,5 A  7,5  ,  ASPECTO  FÍSICO:  LÍQUIDO INCOLOR (Frasco de 500ml)</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIÊNICO MATERIAL: CELULOSE VIRGEM , LARGURA: 10 CM, COR: BRANCA , CARACTERÍSTICAS ADICIONAIS: PICOTADO, FOLHA DUPLA (Pacote de 12UN)</t>
-  </si>
-  <si>
-    <t>ABSORVENTE   HIGIÊNICO,   TIPO: NORMAL COM ABAS, CARACTERÍSTICAS ADICIONAIS: ADULTO, COM GEL, ALTA PROTEÇÃO (Embalagem de 32UN, Tamanho M, Comprimento: 28 cm)</t>
-  </si>
-  <si>
-    <t>ÁGUA SANITÁRIA, COMPOSIÇÃO QUÍMICA: HIPOCLORITO DE SÓDIO, HIDRÓXIDO DE SÓDIO, CLORETO, TEOR CLORO ATIVO: VARIA DE 2 A 2,50%, COR: INCOLOR, APLICAÇÃO: LAVAGEM E ALVEJANTE DE ROUPAS, BANHEIRAS, PIAS (Embalagem de 2L)</t>
-  </si>
-  <si>
-    <t>SABONETE, ASPECTO FÍSICO: SÓLIDO, PESO: 90 G, AROMA: SUAVE, COR: BRANCA</t>
-  </si>
-  <si>
-    <t>SABÃO PÓ, ASPECTO FÍSICO: PÓ, COMPOSIÇÃO: CARBONATOS, SILICATOS, FOSFATOS, TENSOATIVOS NÃO IÔ-, CARACTERÍSTICAS ADICIONAIS: BIODEGRADÁVEL (Embalagem de 1kg)</t>
-  </si>
-  <si>
-    <t>AÇÚCAR,  TIPO:  CRISTAL,  Coloração: Branca (Embalagem de 2kg)</t>
-  </si>
-  <si>
-    <t>CAFÉ APRESENTAÇÃO: TORRADO MOÍDO, TIPO: ÚNICO, TORREFAÇÃO: PONTO DE TORRA ESCURA</t>
-  </si>
-  <si>
-    <t>ESPONJA LIMPEZA MATERIAL: LÃ DE AÇO CARBONO , FORMATO: RETANGULAR , APLICAÇÃO: UTENSÍLIOS E LIMPEZA EM GERAL , CARACTERÍSTICAS ADICIONAIS: TEXTURA MACIA E ISENTA DE SINAIS DE OXIDAÇÃO , COMPRIMENTO MÍNIMO: 100 MM, LARGURA MÍNIMA: 50 M</t>
+    <t>Material Permanente</t>
+  </si>
+  <si>
+    <t>Ar-Condicionado 12.000 Btu (Instalação Inclusa)</t>
+  </si>
+  <si>
+    <t>Ar-Condicionado 18.000 Btu (Instalação Inclusa)</t>
+  </si>
+  <si>
+    <t>Ar-Condicionado 36.000 Btu (Instalação Inclusa)</t>
+  </si>
+  <si>
+    <t>Ar-Condicionado 48.000 Btu (Instalação Inclusa)</t>
+  </si>
+  <si>
+    <t>Ar-Condicionado 60.000 Btu (Instalação Inclusa)</t>
+  </si>
+  <si>
+    <t>Chapa Bifeteira Com Pé</t>
+  </si>
+  <si>
+    <t>Fogão Industrial 8 Bocas</t>
+  </si>
+  <si>
+    <t>Forno Combinado Com 20 Gns</t>
+  </si>
+  <si>
+    <t>Forno Combinado Com 10 Gns</t>
+  </si>
+  <si>
+    <t>Caldeirão Industrial Autoclavado 500 L</t>
+  </si>
+  <si>
+    <t>Pass Through Quente</t>
+  </si>
+  <si>
+    <t>Pass Trough Refrigerado</t>
+  </si>
+  <si>
+    <t>Liquidificador Industrial 25 L</t>
+  </si>
+  <si>
+    <t>Liquidificador Industrial 15 L</t>
+  </si>
+  <si>
+    <t>Multiprocessador De Alimentos</t>
+  </si>
+  <si>
+    <t>Cortador De Legumes Aranha</t>
+  </si>
+  <si>
+    <t>Geladeira Industrial 4 Portas</t>
+  </si>
+  <si>
+    <t>Refrigerador Duplex</t>
+  </si>
+  <si>
+    <t>Freezer Horizontal</t>
+  </si>
+  <si>
+    <t>Forno Micro-Ondas</t>
+  </si>
+  <si>
+    <t>Máquina De Gelo</t>
+  </si>
+  <si>
+    <t>Cortador De Frios</t>
+  </si>
+  <si>
+    <t>Moedor De Carne Industrial</t>
+  </si>
+  <si>
+    <t>Serra Fita Para Ossos</t>
+  </si>
+  <si>
+    <t>Balança Elétrica</t>
+  </si>
+  <si>
+    <t>Câmara De Fermentação De Pães</t>
+  </si>
+  <si>
+    <t>Transpalete Hidráulico</t>
+  </si>
+  <si>
+    <t>Termômetro Infravermelho</t>
+  </si>
+  <si>
+    <t>Empilhadeira Semi-elétrica</t>
+  </si>
+  <si>
+    <t>Cafeteira Industrial</t>
+  </si>
+  <si>
+    <t>Carrinho Telado Para Transporte De Alimentos</t>
+  </si>
+  <si>
+    <t>Carrinho Inox Para Transporte De Alimentos</t>
+  </si>
+  <si>
+    <t>Forno Padaria Turbo 5 Estrelas</t>
+  </si>
+  <si>
+    <t>Refresqueira Industrial 150l L</t>
+  </si>
+  <si>
+    <t>Sanduicheira Dupla Elétrica</t>
+  </si>
+  <si>
+    <t>Lavadora Alta Pressão 1900 W</t>
+  </si>
+  <si>
+    <t>Liquidificador Industrial 8 L</t>
+  </si>
+  <si>
+    <t>Liquidificador Doméstico 2 L</t>
+  </si>
+  <si>
+    <t>Máquina De Lavar Louça Industrial</t>
+  </si>
+  <si>
+    <t>Ventilador De Parede</t>
+  </si>
+  <si>
+    <t>Balcão Térmico Quente</t>
+  </si>
+  <si>
+    <t>Balcão Térmico Refrigerado</t>
+  </si>
+  <si>
+    <t>Carrinho Vertical  Duas Rodas</t>
+  </si>
+  <si>
+    <t>Televisor 50”</t>
+  </si>
+  <si>
+    <t>Televisor 75”</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -295,109 +274,292 @@
     <t>Adjudicado e Homologado</t>
   </si>
   <si>
-    <t>Fracassado e Homologado</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DECORLUX</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LUKMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tecnolinsa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> STARK ELECTRIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ETEK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> wlg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AVANT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ELETROKIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Brasiltec</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CWM12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rele Fotoeletronico</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LR2-3357 37-50A</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> conforme tr</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> terminal cabo 70mm olhal</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> C2S4213 G1/8</t>
-  </si>
-  <si>
-    <t>48.000.949/0001-18</t>
-  </si>
-  <si>
-    <t>23.303.444/0001-00</t>
-  </si>
-  <si>
-    <t>50.972.910/0001-04</t>
-  </si>
-  <si>
-    <t>30.247.600/0001-10</t>
-  </si>
-  <si>
-    <t>47.977.771/0001-05</t>
-  </si>
-  <si>
-    <t>32.969.392/0001-98</t>
-  </si>
-  <si>
-    <t>51.536.681/0001-48</t>
-  </si>
-  <si>
-    <t>14.984.691/0001-10</t>
-  </si>
-  <si>
-    <t>27.732.837/0001-81</t>
+    <t>Anulado e Homologado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Britânia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HISENSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PHILCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ELGIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VENÂNCIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Venancio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WICTORY / HUX METALURGICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ERINOX</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VITALEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gelopar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MIDEA/MIDEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ELECTROLUX</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> K2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SIRMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eccel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WELMY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> QUALINOX</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conforme TR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Geração</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BEGEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JL COLOMBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MONDIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ventisol</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VENANCIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> METALOSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MULTILASER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18KH INV</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 36KH K-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PAC36000IQFM15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PVF48</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 60KH P-T</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CGP150</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WCAA-11 elétrico</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CGV500AC-ERX</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LQI25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LQI15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1029 L</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1029</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MD-RT580MTA01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> H550</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> K2 K2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eccel Eccel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> W 0300/50 PR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CD 49</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RFI - 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JL8B-1253</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carrinho Transporte Material: Metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TL067M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 75P635</t>
+  </si>
+  <si>
+    <t>30.199.011/0001-03</t>
+  </si>
+  <si>
+    <t>71.052.559/0001-03</t>
+  </si>
+  <si>
+    <t>40.457.662/0001-00</t>
+  </si>
+  <si>
+    <t>11.594.621/0001-67</t>
+  </si>
+  <si>
+    <t>35.460.768/0001-22</t>
+  </si>
+  <si>
+    <t>53.211.921/0001-60</t>
+  </si>
+  <si>
+    <t>24.375.213/0001-66</t>
+  </si>
+  <si>
+    <t>48.094.034/0001-19</t>
+  </si>
+  <si>
+    <t>43.875.492/0001-71</t>
+  </si>
+  <si>
+    <t>49.461.961/0001-92</t>
+  </si>
+  <si>
+    <t>47.725.628/0001-18</t>
+  </si>
+  <si>
+    <t>46.344.050/0001-97</t>
+  </si>
+  <si>
+    <t>49.535.491/0001-64</t>
+  </si>
+  <si>
+    <t>36.078.874/0001-09</t>
+  </si>
+  <si>
+    <t>46.580.136/0001-19</t>
+  </si>
+  <si>
+    <t>08.532.500/0001-86</t>
+  </si>
+  <si>
+    <t>45.149.571/0001-20</t>
+  </si>
+  <si>
+    <t>45.329.312/0001-81</t>
+  </si>
+  <si>
+    <t>52.707.488/0001-95</t>
+  </si>
+  <si>
+    <t>37.544.176/0001-14</t>
+  </si>
+  <si>
+    <t>46.948.811/0001-10</t>
   </si>
   <si>
     <t>18.768.894/0001-20</t>
   </si>
   <si>
-    <t>IMPERIO ROZERA LTDA</t>
-  </si>
-  <si>
-    <t>BENEDES SOARES BATISTA</t>
-  </si>
-  <si>
-    <t>GFM PRODUTOS E SERVICOS LTDA</t>
-  </si>
-  <si>
-    <t>J2R AUTOMACAO LTDA LTDA</t>
-  </si>
-  <si>
-    <t>MACROMMERCE LTDA</t>
-  </si>
-  <si>
-    <t>LD 209 MAGALHAES DISTRIBUIDORA DE MATERIAL DE CONSTRUCAO LTDA</t>
-  </si>
-  <si>
-    <t>AVANT COLOR LTDA</t>
-  </si>
-  <si>
-    <t>TAG COMERCIO DE MATERIAL ELETRICO SERVICOS E MONTAGEM LTDA</t>
-  </si>
-  <si>
-    <t>VINTEK IND., COMERCIO E SERVICOS LTDA</t>
+    <t>DANTAS DISTRIBUICAO E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>BEL MICRO TECNOLOGIA S_A</t>
+  </si>
+  <si>
+    <t>S VASCONCELOS ROSAS</t>
+  </si>
+  <si>
+    <t>ALMIX COMERCIO DE SUPRIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>RCL TECNOLOGIA LTDA</t>
+  </si>
+  <si>
+    <t>53.211.921 LAURA DUMKE PAZ</t>
+  </si>
+  <si>
+    <t>B10 LICITA LTDA</t>
+  </si>
+  <si>
+    <t>ROMAG EQUIPAMENTOS PARA COZINHAS LTDA</t>
+  </si>
+  <si>
+    <t>RG COMERCIO DE EQUIPAMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>VINCITA COMERCIO DE IMPLEMENTOS AGRICOLAS LTDA</t>
+  </si>
+  <si>
+    <t>PRIMER SOLUCOES LTDA</t>
+  </si>
+  <si>
+    <t>SUL AGUA EQUIPAMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>F.COMM COMERCIO E DISTRIBUIDORA LTDA</t>
+  </si>
+  <si>
+    <t>L&amp;E COMERCIAL E MATERIAIS DE CONSTRUCAO LTDA</t>
+  </si>
+  <si>
+    <t>46.580.136 CRISTIANE CASTELO BRANCO COUTINHO</t>
+  </si>
+  <si>
+    <t>GERACAO COMERCIO E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>YRLEY BARBOSA DA SILVA LTDA</t>
+  </si>
+  <si>
+    <t>BT COMERCIO INTELIGENTE LTDA</t>
+  </si>
+  <si>
+    <t>52.707.488 WENDEL ROSA BARRETO</t>
+  </si>
+  <si>
+    <t>DINAMICA DISTRIBUIDORA E COMERCIO VAREJISTA DE ELETRODOMESTICOS LTDA</t>
+  </si>
+  <si>
+    <t>46.948.811 RAIRYS FERNANDES SOUSA</t>
   </si>
   <si>
     <t>Credenciado</t>
@@ -782,7 +944,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI54"/>
+  <dimension ref="A1:AI80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -897,7 +1059,7 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2">
-        <v>791010</v>
+        <v>787000</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
@@ -906,10 +1068,10 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>90008</v>
       </c>
       <c r="E2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -921,57 +1083,54 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>458904</v>
+        <v>458218</v>
       </c>
       <c r="K2" t="s">
         <v>39</v>
       </c>
-      <c r="L2" t="s">
-        <v>65</v>
-      </c>
       <c r="M2">
-        <v>216</v>
+        <v>2791</v>
       </c>
       <c r="N2">
-        <v>251</v>
+        <v>24</v>
       </c>
       <c r="O2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="Q2">
-        <v>39.95</v>
+        <v>2250</v>
       </c>
       <c r="S2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="T2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="U2">
-        <v>39.95</v>
+        <v>2250</v>
       </c>
       <c r="V2">
-        <v>54216</v>
+        <v>66984</v>
       </c>
       <c r="W2">
-        <v>10027.45</v>
+        <v>54000</v>
       </c>
       <c r="X2">
-        <v>81.50462962962963</v>
+        <v>19.38373342887854</v>
       </c>
       <c r="Y2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Z2" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:35">
       <c r="A3">
-        <v>791010</v>
+        <v>787000</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
@@ -980,10 +1139,10 @@
         <v>36</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>90008</v>
       </c>
       <c r="E3">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -995,57 +1154,54 @@
         <v>2</v>
       </c>
       <c r="J3">
-        <v>464553</v>
+        <v>458191</v>
       </c>
       <c r="K3" t="s">
         <v>40</v>
       </c>
-      <c r="L3" t="s">
-        <v>66</v>
-      </c>
       <c r="M3">
-        <v>220.87</v>
+        <v>2791</v>
       </c>
       <c r="N3">
-        <v>240</v>
+        <v>7</v>
       </c>
       <c r="O3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="Q3">
-        <v>41.7</v>
+        <v>2250</v>
       </c>
       <c r="S3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="T3" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="U3">
-        <v>41.7</v>
+        <v>2250</v>
       </c>
       <c r="V3">
-        <v>53008.8</v>
+        <v>19537</v>
       </c>
       <c r="W3">
-        <v>10008</v>
+        <v>15750</v>
       </c>
       <c r="X3">
-        <v>81.12011590528365</v>
+        <v>19.38373342887854</v>
       </c>
       <c r="Y3" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="Z3" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:35">
       <c r="A4">
-        <v>791010</v>
+        <v>787000</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
@@ -1054,10 +1210,10 @@
         <v>36</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>90008</v>
       </c>
       <c r="E4">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -1069,66 +1225,66 @@
         <v>3</v>
       </c>
       <c r="J4">
-        <v>458955</v>
+        <v>603721</v>
       </c>
       <c r="K4" t="s">
         <v>41</v>
       </c>
-      <c r="L4" t="s">
-        <v>67</v>
-      </c>
       <c r="M4">
-        <v>124.57</v>
+        <v>3195</v>
       </c>
       <c r="N4">
-        <v>216</v>
+        <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="Q4">
-        <v>42.6</v>
+        <v>3131.1</v>
       </c>
       <c r="S4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="T4" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="U4">
-        <v>42.6</v>
+        <v>3131.1</v>
       </c>
       <c r="V4">
-        <v>26907.12</v>
+        <v>162945</v>
       </c>
       <c r="W4">
-        <v>9201.6</v>
+        <v>159686.1</v>
       </c>
       <c r="X4">
-        <v>65.80236011880871</v>
+        <v>2.000000000000002</v>
       </c>
       <c r="Y4" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="Z4" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:35">
       <c r="A5">
-        <v>791010</v>
+        <v>787000</v>
       </c>
       <c r="B5" t="s">
         <v>35</v>
       </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
       <c r="D5">
-        <v>33</v>
+        <v>90008</v>
       </c>
       <c r="E5">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -1140,30 +1296,54 @@
         <v>4</v>
       </c>
       <c r="J5">
-        <v>463692</v>
+        <v>470880</v>
       </c>
       <c r="K5" t="s">
         <v>42</v>
       </c>
-      <c r="L5" t="s">
-        <v>68</v>
-      </c>
       <c r="M5">
-        <v>91.59999999999999</v>
+        <v>3195</v>
       </c>
       <c r="N5">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="O5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>93</v>
+        <v>85</v>
+      </c>
+      <c r="Q5">
+        <v>3195</v>
+      </c>
+      <c r="S5" t="s">
+        <v>88</v>
+      </c>
+      <c r="T5" t="s">
+        <v>88</v>
+      </c>
+      <c r="U5">
+        <v>3195</v>
+      </c>
+      <c r="V5">
+        <v>63900</v>
+      </c>
+      <c r="W5">
+        <v>63900</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:35">
       <c r="A6">
-        <v>791010</v>
+        <v>787000</v>
       </c>
       <c r="B6" t="s">
         <v>35</v>
@@ -1172,10 +1352,10 @@
         <v>36</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>90008</v>
       </c>
       <c r="E6">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F6" t="s">
         <v>37</v>
@@ -1187,57 +1367,54 @@
         <v>5</v>
       </c>
       <c r="J6">
-        <v>449006</v>
+        <v>480929</v>
       </c>
       <c r="K6" t="s">
         <v>43</v>
       </c>
-      <c r="L6" t="s">
-        <v>69</v>
-      </c>
       <c r="M6">
-        <v>73.51000000000001</v>
+        <v>7408</v>
       </c>
       <c r="N6">
-        <v>186</v>
+        <v>25</v>
       </c>
       <c r="O6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="Q6">
-        <v>71.73999999999999</v>
+        <v>7259.84</v>
       </c>
       <c r="S6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="T6" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="U6">
-        <v>71.73999999999999</v>
+        <v>7259.84</v>
       </c>
       <c r="V6">
-        <v>13672.86</v>
+        <v>185200</v>
       </c>
       <c r="W6">
-        <v>13343.64</v>
+        <v>181496</v>
       </c>
       <c r="X6">
-        <v>2.407835668616531</v>
+        <v>2.000000000000002</v>
       </c>
       <c r="Y6" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="Z6" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:35">
       <c r="A7">
-        <v>791010</v>
+        <v>787000</v>
       </c>
       <c r="B7" t="s">
         <v>35</v>
@@ -1246,10 +1423,10 @@
         <v>36</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>90008</v>
       </c>
       <c r="E7">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F7" t="s">
         <v>37</v>
@@ -1261,69 +1438,63 @@
         <v>6</v>
       </c>
       <c r="J7">
-        <v>454017</v>
+        <v>442496</v>
       </c>
       <c r="K7" t="s">
         <v>44</v>
       </c>
-      <c r="L7" t="s">
-        <v>70</v>
-      </c>
       <c r="M7">
-        <v>13.66</v>
+        <v>7408</v>
       </c>
       <c r="N7">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="O7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="Q7">
-        <v>4.65</v>
+        <v>7259.84</v>
       </c>
       <c r="S7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="T7" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="U7">
-        <v>4.65</v>
+        <v>7259.84</v>
       </c>
       <c r="V7">
-        <v>2458.8</v>
+        <v>59264</v>
       </c>
       <c r="W7">
-        <v>837.0000000000001</v>
+        <v>58078.72</v>
       </c>
       <c r="X7">
-        <v>65.95900439238653</v>
+        <v>2.000000000000002</v>
       </c>
       <c r="Y7" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="Z7" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:35">
       <c r="A8">
-        <v>791010</v>
+        <v>787000</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
       <c r="D8">
-        <v>33</v>
+        <v>90008</v>
       </c>
       <c r="E8">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F8" t="s">
         <v>37</v>
@@ -1335,57 +1506,27 @@
         <v>7</v>
       </c>
       <c r="J8">
-        <v>465332</v>
+        <v>255374</v>
       </c>
       <c r="K8" t="s">
         <v>45</v>
       </c>
-      <c r="L8" t="s">
-        <v>71</v>
-      </c>
       <c r="M8">
-        <v>97.51000000000001</v>
+        <v>15212</v>
       </c>
       <c r="N8">
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="O8" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q8">
-        <v>45.6</v>
-      </c>
-      <c r="S8" t="s">
-        <v>99</v>
-      </c>
-      <c r="T8" t="s">
-        <v>106</v>
-      </c>
-      <c r="U8">
-        <v>45.6</v>
-      </c>
-      <c r="V8">
-        <v>18429.39</v>
-      </c>
-      <c r="W8">
-        <v>8618.4</v>
-      </c>
-      <c r="X8">
-        <v>53.23556558301712</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:35">
       <c r="A9">
-        <v>791010</v>
+        <v>787000</v>
       </c>
       <c r="B9" t="s">
         <v>35</v>
@@ -1394,10 +1535,10 @@
         <v>36</v>
       </c>
       <c r="D9">
-        <v>33</v>
+        <v>90008</v>
       </c>
       <c r="E9">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F9" t="s">
         <v>37</v>
@@ -1409,57 +1550,54 @@
         <v>8</v>
       </c>
       <c r="J9">
-        <v>459017</v>
+        <v>457010</v>
       </c>
       <c r="K9" t="s">
         <v>46</v>
       </c>
-      <c r="L9" t="s">
-        <v>72</v>
-      </c>
       <c r="M9">
-        <v>349.81</v>
+        <v>15212</v>
       </c>
       <c r="N9">
-        <v>146</v>
+        <v>6</v>
       </c>
       <c r="O9" t="s">
+        <v>84</v>
+      </c>
+      <c r="P9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q9">
+        <v>11910.65</v>
+      </c>
+      <c r="S9" t="s">
         <v>91</v>
       </c>
-      <c r="P9" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q9">
-        <v>129.5</v>
-      </c>
-      <c r="S9" t="s">
-        <v>100</v>
-      </c>
       <c r="T9" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="U9">
-        <v>129.5</v>
+        <v>11910.65</v>
       </c>
       <c r="V9">
-        <v>51072.26</v>
+        <v>91272</v>
       </c>
       <c r="W9">
-        <v>18907</v>
+        <v>71463.89999999999</v>
       </c>
       <c r="X9">
-        <v>62.97990337611847</v>
+        <v>21.7022745201157</v>
       </c>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="Z9" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:35">
       <c r="A10">
-        <v>791010</v>
+        <v>787000</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
@@ -1468,10 +1606,10 @@
         <v>36</v>
       </c>
       <c r="D10">
-        <v>33</v>
+        <v>90008</v>
       </c>
       <c r="E10">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
@@ -1483,57 +1621,54 @@
         <v>9</v>
       </c>
       <c r="J10">
-        <v>459670</v>
+        <v>457010</v>
       </c>
       <c r="K10" t="s">
         <v>47</v>
       </c>
-      <c r="L10" t="s">
-        <v>73</v>
-      </c>
       <c r="M10">
-        <v>6.51</v>
+        <v>15987</v>
       </c>
       <c r="N10">
-        <v>485</v>
+        <v>19</v>
       </c>
       <c r="O10" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="Q10">
-        <v>5.63</v>
+        <v>9800</v>
       </c>
       <c r="S10" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="T10" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="U10">
-        <v>5.63</v>
+        <v>9800</v>
       </c>
       <c r="V10">
-        <v>3157.35</v>
+        <v>303753</v>
       </c>
       <c r="W10">
-        <v>2730.55</v>
+        <v>186200</v>
       </c>
       <c r="X10">
-        <v>13.51766513056836</v>
+        <v>38.70019390754989</v>
       </c>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="Z10" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:35">
       <c r="A11">
-        <v>791010</v>
+        <v>787000</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
@@ -1542,10 +1677,10 @@
         <v>36</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>90008</v>
       </c>
       <c r="E11">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F11" t="s">
         <v>37</v>
@@ -1557,97 +1692,262 @@
         <v>10</v>
       </c>
       <c r="J11">
-        <v>269172</v>
+        <v>402447</v>
       </c>
       <c r="K11" t="s">
         <v>48</v>
       </c>
-      <c r="L11" t="s">
-        <v>74</v>
-      </c>
       <c r="M11">
-        <v>403.52</v>
+        <v>15987</v>
       </c>
       <c r="N11">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="O11" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="P11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11">
+        <v>10800</v>
+      </c>
+      <c r="S11" t="s">
         <v>92</v>
       </c>
-      <c r="Q11">
-        <v>399.95</v>
-      </c>
-      <c r="R11">
-        <v>399.55</v>
-      </c>
-      <c r="S11" t="s">
-        <v>102</v>
-      </c>
       <c r="T11" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="U11">
-        <v>399.55</v>
+        <v>10800</v>
       </c>
       <c r="V11">
-        <v>37930.88</v>
+        <v>79935</v>
       </c>
       <c r="W11">
-        <v>37557.7</v>
+        <v>54000</v>
       </c>
       <c r="X11">
-        <v>0.9838421887390923</v>
+        <v>32.44511165321824</v>
       </c>
       <c r="Y11" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="Z11" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:35">
+      <c r="A12">
+        <v>787000</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12">
+        <v>90008</v>
+      </c>
+      <c r="E12">
+        <v>2024</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
       <c r="I12">
         <v>11</v>
       </c>
       <c r="J12">
-        <v>446019</v>
+        <v>2089</v>
       </c>
       <c r="K12" t="s">
         <v>49</v>
       </c>
-      <c r="L12" t="s">
-        <v>75</v>
+      <c r="M12">
+        <v>3985</v>
+      </c>
+      <c r="N12">
+        <v>18</v>
+      </c>
+      <c r="O12" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12">
+        <v>1854.54</v>
+      </c>
+      <c r="S12" t="s">
+        <v>93</v>
+      </c>
+      <c r="T12" t="s">
+        <v>121</v>
+      </c>
+      <c r="U12">
+        <v>1854.54</v>
+      </c>
+      <c r="V12">
+        <v>71730</v>
+      </c>
+      <c r="W12">
+        <v>33381.72</v>
+      </c>
+      <c r="X12">
+        <v>53.46198243412799</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:35">
+      <c r="A13">
+        <v>787000</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13">
+        <v>90008</v>
+      </c>
+      <c r="E13">
+        <v>2024</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
       <c r="I13">
         <v>12</v>
       </c>
       <c r="J13">
-        <v>463556</v>
+        <v>483276</v>
       </c>
       <c r="K13" t="s">
         <v>50</v>
       </c>
-      <c r="L13" t="s">
-        <v>76</v>
+      <c r="M13">
+        <v>3985</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q13">
+        <v>1854.54</v>
+      </c>
+      <c r="S13" t="s">
+        <v>93</v>
+      </c>
+      <c r="T13" t="s">
+        <v>121</v>
+      </c>
+      <c r="U13">
+        <v>1854.54</v>
+      </c>
+      <c r="V13">
+        <v>19925</v>
+      </c>
+      <c r="W13">
+        <v>9272.700000000001</v>
+      </c>
+      <c r="X13">
+        <v>53.46198243412799</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:35">
+      <c r="A14">
+        <v>787000</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14">
+        <v>90008</v>
+      </c>
+      <c r="E14">
+        <v>2024</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
       <c r="I14">
         <v>13</v>
       </c>
       <c r="J14">
-        <v>235092</v>
+        <v>481373</v>
       </c>
       <c r="K14" t="s">
         <v>51</v>
       </c>
-      <c r="L14" t="s">
-        <v>77</v>
+      <c r="M14">
+        <v>4020</v>
+      </c>
+      <c r="N14">
+        <v>12</v>
+      </c>
+      <c r="O14" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q14">
+        <v>2518.55</v>
+      </c>
+      <c r="S14" t="s">
+        <v>94</v>
+      </c>
+      <c r="T14" t="s">
+        <v>94</v>
+      </c>
+      <c r="U14">
+        <v>2518.55</v>
+      </c>
+      <c r="V14">
+        <v>48240</v>
+      </c>
+      <c r="W14">
+        <v>30222.6</v>
+      </c>
+      <c r="X14">
+        <v>37.34950248756218</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -1655,13 +1955,10 @@
         <v>14</v>
       </c>
       <c r="J15">
-        <v>456469</v>
+        <v>431283</v>
       </c>
       <c r="K15" t="s">
         <v>52</v>
-      </c>
-      <c r="L15" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -1669,563 +1966,2745 @@
         <v>15</v>
       </c>
       <c r="J16">
-        <v>462651</v>
+        <v>473222</v>
       </c>
       <c r="K16" t="s">
         <v>53</v>
       </c>
-      <c r="L16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="9:12">
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17">
+        <v>787000</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17">
+        <v>90008</v>
+      </c>
+      <c r="E17">
+        <v>2024</v>
+      </c>
+      <c r="F17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
       <c r="I17">
         <v>16</v>
       </c>
       <c r="J17">
-        <v>372527</v>
+        <v>465888</v>
       </c>
       <c r="K17" t="s">
         <v>54</v>
       </c>
-      <c r="L17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="9:12">
+      <c r="M17">
+        <v>43855</v>
+      </c>
+      <c r="N17">
+        <v>11</v>
+      </c>
+      <c r="O17" t="s">
+        <v>84</v>
+      </c>
+      <c r="P17" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q17">
+        <v>22000</v>
+      </c>
+      <c r="S17" t="s">
+        <v>95</v>
+      </c>
+      <c r="T17" t="s">
+        <v>122</v>
+      </c>
+      <c r="U17">
+        <v>22000</v>
+      </c>
+      <c r="V17">
+        <v>482405</v>
+      </c>
+      <c r="W17">
+        <v>242000</v>
+      </c>
+      <c r="X17">
+        <v>49.83468247634249</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18">
+        <v>787000</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18">
+        <v>90008</v>
+      </c>
+      <c r="E18">
+        <v>2024</v>
+      </c>
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
       <c r="I18">
         <v>17</v>
       </c>
       <c r="J18">
-        <v>372079</v>
+        <v>258164</v>
       </c>
       <c r="K18" t="s">
         <v>55</v>
       </c>
-      <c r="L18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="9:12">
+      <c r="M18">
+        <v>43855</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18" t="s">
+        <v>84</v>
+      </c>
+      <c r="P18" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q18">
+        <v>22000</v>
+      </c>
+      <c r="S18" t="s">
+        <v>95</v>
+      </c>
+      <c r="T18" t="s">
+        <v>122</v>
+      </c>
+      <c r="U18">
+        <v>22000</v>
+      </c>
+      <c r="V18">
+        <v>131565</v>
+      </c>
+      <c r="W18">
+        <v>66000</v>
+      </c>
+      <c r="X18">
+        <v>49.83468247634249</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19">
+        <v>787000</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19">
+        <v>90008</v>
+      </c>
+      <c r="E19">
+        <v>2024</v>
+      </c>
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s">
+        <v>38</v>
+      </c>
       <c r="I19">
         <v>18</v>
       </c>
       <c r="J19">
-        <v>449798</v>
+        <v>486585</v>
       </c>
       <c r="K19" t="s">
         <v>56</v>
       </c>
-      <c r="L19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="9:12">
+      <c r="M19">
+        <v>26857</v>
+      </c>
+      <c r="N19">
+        <v>9</v>
+      </c>
+      <c r="O19" t="s">
+        <v>84</v>
+      </c>
+      <c r="P19" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q19">
+        <v>14700</v>
+      </c>
+      <c r="S19" t="s">
+        <v>96</v>
+      </c>
+      <c r="T19" t="s">
+        <v>123</v>
+      </c>
+      <c r="U19">
+        <v>14700</v>
+      </c>
+      <c r="V19">
+        <v>241713</v>
+      </c>
+      <c r="W19">
+        <v>132300</v>
+      </c>
+      <c r="X19">
+        <v>45.26566630673568</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20">
+        <v>787000</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20">
+        <v>90008</v>
+      </c>
+      <c r="E20">
+        <v>2024</v>
+      </c>
+      <c r="F20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" t="s">
+        <v>38</v>
+      </c>
       <c r="I20">
         <v>19</v>
       </c>
       <c r="J20">
-        <v>443004</v>
+        <v>445210</v>
       </c>
       <c r="K20" t="s">
         <v>57</v>
       </c>
-      <c r="L20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="9:12">
+      <c r="M20">
+        <v>26857</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20" t="s">
+        <v>84</v>
+      </c>
+      <c r="P20" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q20">
+        <v>14700</v>
+      </c>
+      <c r="S20" t="s">
+        <v>96</v>
+      </c>
+      <c r="T20" t="s">
+        <v>123</v>
+      </c>
+      <c r="U20">
+        <v>14700</v>
+      </c>
+      <c r="V20">
+        <v>53714</v>
+      </c>
+      <c r="W20">
+        <v>29400</v>
+      </c>
+      <c r="X20">
+        <v>45.26566630673568</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="I21">
         <v>20</v>
       </c>
       <c r="J21">
-        <v>301728</v>
+        <v>479243</v>
       </c>
       <c r="K21" t="s">
         <v>58</v>
       </c>
-      <c r="L21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="9:12">
+    </row>
+    <row r="22" spans="1:26">
       <c r="I22">
         <v>21</v>
       </c>
       <c r="J22">
-        <v>299605</v>
+        <v>487318</v>
       </c>
       <c r="K22" t="s">
         <v>59</v>
       </c>
-      <c r="L22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="9:12">
+    </row>
+    <row r="23" spans="1:26">
       <c r="I23">
         <v>22</v>
       </c>
       <c r="J23">
-        <v>444433</v>
+        <v>445256</v>
       </c>
       <c r="K23" t="s">
         <v>60</v>
       </c>
-      <c r="L23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="9:12">
+    </row>
+    <row r="24" spans="1:26">
       <c r="I24">
         <v>23</v>
       </c>
       <c r="J24">
-        <v>332971</v>
+        <v>253635</v>
       </c>
       <c r="K24" t="s">
         <v>61</v>
       </c>
-      <c r="L24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="9:12">
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25">
+        <v>787000</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25">
+        <v>90008</v>
+      </c>
+      <c r="E25">
+        <v>2024</v>
+      </c>
+      <c r="F25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" t="s">
+        <v>38</v>
+      </c>
       <c r="I25">
         <v>24</v>
       </c>
       <c r="J25">
-        <v>603269</v>
+        <v>442377</v>
       </c>
       <c r="K25" t="s">
         <v>62</v>
       </c>
-      <c r="L25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="9:12">
+      <c r="M25">
+        <v>2410</v>
+      </c>
+      <c r="N25">
+        <v>14</v>
+      </c>
+      <c r="O25" t="s">
+        <v>84</v>
+      </c>
+      <c r="P25" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q25">
+        <v>1667.47</v>
+      </c>
+      <c r="S25" t="s">
+        <v>97</v>
+      </c>
+      <c r="T25" t="s">
+        <v>124</v>
+      </c>
+      <c r="U25">
+        <v>1667.47</v>
+      </c>
+      <c r="V25">
+        <v>33740</v>
+      </c>
+      <c r="W25">
+        <v>23344.58</v>
+      </c>
+      <c r="X25">
+        <v>30.8103734439834</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26">
+        <v>787000</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26">
+        <v>90008</v>
+      </c>
+      <c r="E26">
+        <v>2024</v>
+      </c>
+      <c r="F26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
       <c r="I26">
         <v>25</v>
       </c>
       <c r="J26">
-        <v>606522</v>
+        <v>384273</v>
       </c>
       <c r="K26" t="s">
         <v>63</v>
       </c>
-      <c r="L26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="9:12">
+      <c r="M26">
+        <v>1986</v>
+      </c>
+      <c r="N26">
+        <v>17</v>
+      </c>
+      <c r="O26" t="s">
+        <v>84</v>
+      </c>
+      <c r="P26" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q26">
+        <v>1475.78</v>
+      </c>
+      <c r="S26" t="s">
+        <v>97</v>
+      </c>
+      <c r="T26" t="s">
+        <v>125</v>
+      </c>
+      <c r="U26">
+        <v>1475.78</v>
+      </c>
+      <c r="V26">
+        <v>33762</v>
+      </c>
+      <c r="W26">
+        <v>25088.26</v>
+      </c>
+      <c r="X26">
+        <v>25.69083585095669</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="I27">
         <v>26</v>
       </c>
       <c r="J27">
-        <v>373481</v>
+        <v>330755</v>
       </c>
       <c r="K27" t="s">
         <v>64</v>
       </c>
-      <c r="L27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="9:12">
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28">
+        <v>787000</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28">
+        <v>90008</v>
+      </c>
+      <c r="E28">
+        <v>2024</v>
+      </c>
+      <c r="F28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" t="s">
+        <v>38</v>
+      </c>
       <c r="I28">
         <v>27</v>
       </c>
       <c r="J28">
-        <v>458904</v>
+        <v>486185</v>
       </c>
       <c r="K28" t="s">
-        <v>39</v>
-      </c>
-      <c r="L28" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="29" spans="9:12">
+      <c r="M28">
+        <v>172</v>
+      </c>
+      <c r="N28">
+        <v>26</v>
+      </c>
+      <c r="O28" t="s">
+        <v>84</v>
+      </c>
+      <c r="P28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29">
+        <v>787000</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29">
+        <v>90008</v>
+      </c>
+      <c r="E29">
+        <v>2024</v>
+      </c>
+      <c r="F29" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" t="s">
+        <v>38</v>
+      </c>
       <c r="I29">
         <v>28</v>
       </c>
       <c r="J29">
-        <v>464553</v>
+        <v>600067</v>
       </c>
       <c r="K29" t="s">
-        <v>40</v>
-      </c>
-      <c r="L29" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="30" spans="9:12">
+      <c r="M29">
+        <v>6630</v>
+      </c>
+      <c r="N29">
+        <v>10</v>
+      </c>
+      <c r="O29" t="s">
+        <v>84</v>
+      </c>
+      <c r="P29" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q29">
+        <v>6630</v>
+      </c>
+      <c r="S29" t="s">
+        <v>98</v>
+      </c>
+      <c r="T29" t="s">
+        <v>126</v>
+      </c>
+      <c r="U29">
+        <v>6630</v>
+      </c>
+      <c r="V29">
+        <v>66300</v>
+      </c>
+      <c r="W29">
+        <v>66300</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30">
+        <v>787000</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30">
+        <v>90008</v>
+      </c>
+      <c r="E30">
+        <v>2024</v>
+      </c>
+      <c r="F30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" t="s">
+        <v>38</v>
+      </c>
       <c r="I30">
         <v>29</v>
       </c>
       <c r="J30">
-        <v>458955</v>
+        <v>298065</v>
       </c>
       <c r="K30" t="s">
-        <v>41</v>
-      </c>
-      <c r="L30" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="31" spans="9:12">
+      <c r="M30">
+        <v>6630</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="O30" t="s">
+        <v>84</v>
+      </c>
+      <c r="P30" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q30">
+        <v>6630</v>
+      </c>
+      <c r="S30" t="s">
+        <v>98</v>
+      </c>
+      <c r="T30" t="s">
+        <v>127</v>
+      </c>
+      <c r="U30">
+        <v>6630</v>
+      </c>
+      <c r="V30">
+        <v>19890</v>
+      </c>
+      <c r="W30">
+        <v>19890</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31">
+        <v>787000</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31">
+        <v>90008</v>
+      </c>
+      <c r="E31">
+        <v>2024</v>
+      </c>
+      <c r="F31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" t="s">
+        <v>38</v>
+      </c>
       <c r="I31">
         <v>30</v>
       </c>
       <c r="J31">
-        <v>463692</v>
+        <v>423374</v>
       </c>
       <c r="K31" t="s">
-        <v>42</v>
-      </c>
-      <c r="L31" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="32" spans="9:12">
+      <c r="M31">
+        <v>3167</v>
+      </c>
+      <c r="N31">
+        <v>20</v>
+      </c>
+      <c r="O31" t="s">
+        <v>84</v>
+      </c>
+      <c r="P31" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q31">
+        <v>2880.99</v>
+      </c>
+      <c r="S31" t="s">
+        <v>99</v>
+      </c>
+      <c r="T31" t="s">
+        <v>128</v>
+      </c>
+      <c r="U31">
+        <v>2880.99</v>
+      </c>
+      <c r="V31">
+        <v>63340</v>
+      </c>
+      <c r="W31">
+        <v>57619.8</v>
+      </c>
+      <c r="X31">
+        <v>9.0309441111462</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32">
+        <v>787000</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32">
+        <v>90008</v>
+      </c>
+      <c r="E32">
+        <v>2024</v>
+      </c>
+      <c r="F32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" t="s">
+        <v>38</v>
+      </c>
       <c r="I32">
         <v>31</v>
       </c>
       <c r="J32">
-        <v>449006</v>
+        <v>430063</v>
       </c>
       <c r="K32" t="s">
-        <v>43</v>
-      </c>
-      <c r="L32" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="33" spans="9:12">
+      <c r="M32">
+        <v>3828</v>
+      </c>
+      <c r="N32">
+        <v>17</v>
+      </c>
+      <c r="O32" t="s">
+        <v>84</v>
+      </c>
+      <c r="P32" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q32">
+        <v>3152</v>
+      </c>
+      <c r="S32" t="s">
+        <v>100</v>
+      </c>
+      <c r="T32" t="s">
+        <v>129</v>
+      </c>
+      <c r="U32">
+        <v>3152</v>
+      </c>
+      <c r="V32">
+        <v>65076</v>
+      </c>
+      <c r="W32">
+        <v>53584</v>
+      </c>
+      <c r="X32">
+        <v>17.65935214211076</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33">
+        <v>787000</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33">
+        <v>90008</v>
+      </c>
+      <c r="E33">
+        <v>2024</v>
+      </c>
+      <c r="F33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" t="s">
+        <v>38</v>
+      </c>
       <c r="I33">
         <v>32</v>
       </c>
       <c r="J33">
-        <v>454017</v>
+        <v>474330</v>
       </c>
       <c r="K33" t="s">
-        <v>44</v>
-      </c>
-      <c r="L33" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="34" spans="9:12">
+      <c r="M33">
+        <v>3828</v>
+      </c>
+      <c r="N33">
+        <v>5</v>
+      </c>
+      <c r="O33" t="s">
+        <v>84</v>
+      </c>
+      <c r="P33" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q33">
+        <v>3152</v>
+      </c>
+      <c r="S33" t="s">
+        <v>100</v>
+      </c>
+      <c r="T33" t="s">
+        <v>129</v>
+      </c>
+      <c r="U33">
+        <v>3152</v>
+      </c>
+      <c r="V33">
+        <v>19140</v>
+      </c>
+      <c r="W33">
+        <v>15760</v>
+      </c>
+      <c r="X33">
+        <v>17.65935214211076</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34">
+        <v>787000</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34">
+        <v>90008</v>
+      </c>
+      <c r="E34">
+        <v>2024</v>
+      </c>
+      <c r="F34" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" t="s">
+        <v>38</v>
+      </c>
       <c r="I34">
         <v>33</v>
       </c>
       <c r="J34">
-        <v>465332</v>
+        <v>457010</v>
       </c>
       <c r="K34" t="s">
-        <v>45</v>
-      </c>
-      <c r="L34" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="35" spans="9:12">
+      <c r="M34">
+        <v>852</v>
+      </c>
+      <c r="N34">
+        <v>39</v>
+      </c>
+      <c r="O34" t="s">
+        <v>84</v>
+      </c>
+      <c r="P34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35">
+        <v>787000</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35">
+        <v>90008</v>
+      </c>
+      <c r="E35">
+        <v>2024</v>
+      </c>
+      <c r="F35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" t="s">
+        <v>38</v>
+      </c>
       <c r="I35">
         <v>34</v>
       </c>
       <c r="J35">
-        <v>459017</v>
+        <v>451529</v>
       </c>
       <c r="K35" t="s">
-        <v>46</v>
-      </c>
-      <c r="L35" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="36" spans="9:12">
+      <c r="M35">
+        <v>14072</v>
+      </c>
+      <c r="N35">
+        <v>20</v>
+      </c>
+      <c r="O35" t="s">
+        <v>84</v>
+      </c>
+      <c r="P35" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q35">
+        <v>10430.14</v>
+      </c>
+      <c r="S35" t="s">
+        <v>101</v>
+      </c>
+      <c r="T35" t="s">
+        <v>130</v>
+      </c>
+      <c r="U35">
+        <v>10430.14</v>
+      </c>
+      <c r="V35">
+        <v>281440</v>
+      </c>
+      <c r="W35">
+        <v>208602.8</v>
+      </c>
+      <c r="X35">
+        <v>25.88018760659466</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36">
+        <v>787000</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36">
+        <v>90008</v>
+      </c>
+      <c r="E36">
+        <v>2024</v>
+      </c>
+      <c r="F36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" t="s">
+        <v>38</v>
+      </c>
       <c r="I36">
         <v>35</v>
       </c>
       <c r="J36">
-        <v>459670</v>
+        <v>317762</v>
       </c>
       <c r="K36" t="s">
-        <v>47</v>
-      </c>
-      <c r="L36" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="37" spans="9:12">
+      <c r="M36">
+        <v>14072</v>
+      </c>
+      <c r="N36">
+        <v>6</v>
+      </c>
+      <c r="O36" t="s">
+        <v>84</v>
+      </c>
+      <c r="P36" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q36">
+        <v>9927.4</v>
+      </c>
+      <c r="S36" t="s">
+        <v>101</v>
+      </c>
+      <c r="T36" t="s">
+        <v>130</v>
+      </c>
+      <c r="U36">
+        <v>9927.4</v>
+      </c>
+      <c r="V36">
+        <v>84432</v>
+      </c>
+      <c r="W36">
+        <v>59564.4</v>
+      </c>
+      <c r="X36">
+        <v>29.45281409891984</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37">
+        <v>787000</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37">
+        <v>90008</v>
+      </c>
+      <c r="E37">
+        <v>2024</v>
+      </c>
+      <c r="F37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" t="s">
+        <v>38</v>
+      </c>
       <c r="I37">
         <v>36</v>
       </c>
       <c r="J37">
-        <v>269172</v>
+        <v>449988</v>
       </c>
       <c r="K37" t="s">
-        <v>48</v>
-      </c>
-      <c r="L37" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="38" spans="9:12">
+      <c r="M37">
+        <v>5568</v>
+      </c>
+      <c r="N37">
+        <v>14</v>
+      </c>
+      <c r="O37" t="s">
+        <v>84</v>
+      </c>
+      <c r="P37" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q37">
+        <v>4310</v>
+      </c>
+      <c r="S37" t="s">
+        <v>102</v>
+      </c>
+      <c r="T37" t="s">
+        <v>102</v>
+      </c>
+      <c r="U37">
+        <v>4310</v>
+      </c>
+      <c r="V37">
+        <v>77952</v>
+      </c>
+      <c r="W37">
+        <v>60340</v>
+      </c>
+      <c r="X37">
+        <v>22.5933908045977</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38">
+        <v>787000</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38">
+        <v>90008</v>
+      </c>
+      <c r="E38">
+        <v>2024</v>
+      </c>
+      <c r="F38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" t="s">
+        <v>38</v>
+      </c>
       <c r="I38">
         <v>37</v>
       </c>
       <c r="J38">
-        <v>446019</v>
+        <v>483292</v>
       </c>
       <c r="K38" t="s">
-        <v>49</v>
-      </c>
-      <c r="L38" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="39" spans="9:12">
+      <c r="M38">
+        <v>6311</v>
+      </c>
+      <c r="N38">
+        <v>12</v>
+      </c>
+      <c r="O38" t="s">
+        <v>84</v>
+      </c>
+      <c r="P38" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q38">
+        <v>6311</v>
+      </c>
+      <c r="S38" t="s">
+        <v>103</v>
+      </c>
+      <c r="T38" t="s">
+        <v>131</v>
+      </c>
+      <c r="U38">
+        <v>6311</v>
+      </c>
+      <c r="V38">
+        <v>75732</v>
+      </c>
+      <c r="W38">
+        <v>75732</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
       <c r="I39">
         <v>38</v>
       </c>
       <c r="J39">
-        <v>463556</v>
+        <v>451184</v>
       </c>
       <c r="K39" t="s">
-        <v>50</v>
-      </c>
-      <c r="L39" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="9:12">
+    <row r="40" spans="1:26">
       <c r="I40">
         <v>39</v>
       </c>
       <c r="J40">
-        <v>235092</v>
+        <v>255706</v>
       </c>
       <c r="K40" t="s">
-        <v>51</v>
-      </c>
-      <c r="L40" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="9:12">
+    <row r="41" spans="1:26">
+      <c r="A41">
+        <v>787000</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41">
+        <v>90008</v>
+      </c>
+      <c r="E41">
+        <v>2024</v>
+      </c>
+      <c r="F41" t="s">
+        <v>37</v>
+      </c>
+      <c r="G41" t="s">
+        <v>38</v>
+      </c>
       <c r="I41">
         <v>40</v>
       </c>
       <c r="J41">
-        <v>456469</v>
+        <v>453490</v>
       </c>
       <c r="K41" t="s">
-        <v>52</v>
-      </c>
-      <c r="L41" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="42" spans="9:12">
+      <c r="M41">
+        <v>3222</v>
+      </c>
+      <c r="N41">
+        <v>13</v>
+      </c>
+      <c r="O41" t="s">
+        <v>84</v>
+      </c>
+      <c r="P41" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q41">
+        <v>931</v>
+      </c>
+      <c r="S41" t="s">
+        <v>104</v>
+      </c>
+      <c r="T41" t="s">
+        <v>132</v>
+      </c>
+      <c r="U41">
+        <v>931</v>
+      </c>
+      <c r="V41">
+        <v>41886</v>
+      </c>
+      <c r="W41">
+        <v>12103</v>
+      </c>
+      <c r="X41">
+        <v>71.10490378646803</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
+      <c r="A42">
+        <v>787000</v>
+      </c>
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42">
+        <v>90008</v>
+      </c>
+      <c r="E42">
+        <v>2024</v>
+      </c>
+      <c r="F42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" t="s">
+        <v>38</v>
+      </c>
       <c r="I42">
         <v>41</v>
       </c>
       <c r="J42">
-        <v>462651</v>
+        <v>260540</v>
       </c>
       <c r="K42" t="s">
-        <v>53</v>
-      </c>
-      <c r="L42" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="43" spans="9:12">
+      <c r="M42">
+        <v>11784</v>
+      </c>
+      <c r="N42">
+        <v>9</v>
+      </c>
+      <c r="O42" t="s">
+        <v>84</v>
+      </c>
+      <c r="P42" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q42">
+        <v>10000</v>
+      </c>
+      <c r="S42" t="s">
+        <v>105</v>
+      </c>
+      <c r="T42" t="s">
+        <v>105</v>
+      </c>
+      <c r="U42">
+        <v>10000</v>
+      </c>
+      <c r="V42">
+        <v>106056</v>
+      </c>
+      <c r="W42">
+        <v>90000</v>
+      </c>
+      <c r="X42">
+        <v>15.13917175831636</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
+      <c r="A43">
+        <v>787000</v>
+      </c>
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43">
+        <v>90008</v>
+      </c>
+      <c r="E43">
+        <v>2024</v>
+      </c>
+      <c r="F43" t="s">
+        <v>37</v>
+      </c>
+      <c r="G43" t="s">
+        <v>38</v>
+      </c>
       <c r="I43">
         <v>42</v>
       </c>
       <c r="J43">
-        <v>372527</v>
+        <v>254906</v>
       </c>
       <c r="K43" t="s">
-        <v>54</v>
-      </c>
-      <c r="L43" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="44" spans="9:12">
+      <c r="M43">
+        <v>11784</v>
+      </c>
+      <c r="N43">
+        <v>3</v>
+      </c>
+      <c r="O43" t="s">
+        <v>84</v>
+      </c>
+      <c r="P43" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q43">
+        <v>10000</v>
+      </c>
+      <c r="S43" t="s">
+        <v>105</v>
+      </c>
+      <c r="T43" t="s">
+        <v>105</v>
+      </c>
+      <c r="U43">
+        <v>10000</v>
+      </c>
+      <c r="V43">
+        <v>35352</v>
+      </c>
+      <c r="W43">
+        <v>30000</v>
+      </c>
+      <c r="X43">
+        <v>15.13917175831636</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
       <c r="I44">
         <v>43</v>
       </c>
       <c r="J44">
-        <v>372079</v>
+        <v>483907</v>
       </c>
       <c r="K44" t="s">
-        <v>55</v>
-      </c>
-      <c r="L44" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="9:12">
+    <row r="45" spans="1:26">
+      <c r="A45">
+        <v>787000</v>
+      </c>
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45">
+        <v>90008</v>
+      </c>
+      <c r="E45">
+        <v>2024</v>
+      </c>
+      <c r="F45" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" t="s">
+        <v>38</v>
+      </c>
       <c r="I45">
         <v>44</v>
       </c>
       <c r="J45">
-        <v>449798</v>
+        <v>480490</v>
       </c>
       <c r="K45" t="s">
-        <v>56</v>
-      </c>
-      <c r="L45" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="46" spans="9:12">
+      <c r="M45">
+        <v>191</v>
+      </c>
+      <c r="N45">
+        <v>26</v>
+      </c>
+      <c r="O45" t="s">
+        <v>84</v>
+      </c>
+      <c r="P45" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q45">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="S45" t="s">
+        <v>106</v>
+      </c>
+      <c r="T45" t="s">
+        <v>106</v>
+      </c>
+      <c r="U45">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="V45">
+        <v>4966</v>
+      </c>
+      <c r="W45">
+        <v>2420.6</v>
+      </c>
+      <c r="X45">
+        <v>51.25654450261781</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
       <c r="I46">
         <v>45</v>
       </c>
       <c r="J46">
-        <v>443004</v>
+        <v>439607</v>
       </c>
       <c r="K46" t="s">
-        <v>57</v>
-      </c>
-      <c r="L46" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="9:12">
+    <row r="47" spans="1:26">
       <c r="I47">
         <v>46</v>
       </c>
       <c r="J47">
-        <v>301728</v>
+        <v>330755</v>
       </c>
       <c r="K47" t="s">
-        <v>58</v>
-      </c>
-      <c r="L47" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="9:12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
       <c r="I48">
         <v>47</v>
       </c>
       <c r="J48">
-        <v>299605</v>
+        <v>486185</v>
       </c>
       <c r="K48" t="s">
-        <v>59</v>
-      </c>
-      <c r="L48" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="9:35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
       <c r="I49">
         <v>48</v>
       </c>
       <c r="J49">
-        <v>444433</v>
+        <v>600067</v>
       </c>
       <c r="K49" t="s">
-        <v>60</v>
-      </c>
-      <c r="L49" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="9:35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
+      <c r="A50">
+        <v>787000</v>
+      </c>
+      <c r="B50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50">
+        <v>90008</v>
+      </c>
+      <c r="E50">
+        <v>2024</v>
+      </c>
+      <c r="F50" t="s">
+        <v>37</v>
+      </c>
+      <c r="G50" t="s">
+        <v>38</v>
+      </c>
       <c r="I50">
         <v>49</v>
       </c>
       <c r="J50">
-        <v>332971</v>
+        <v>298065</v>
       </c>
       <c r="K50" t="s">
-        <v>61</v>
-      </c>
-      <c r="L50" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="51" spans="9:35">
+        <v>67</v>
+      </c>
+      <c r="M50">
+        <v>2723</v>
+      </c>
+      <c r="N50">
+        <v>20</v>
+      </c>
+      <c r="O50" t="s">
+        <v>84</v>
+      </c>
+      <c r="P50" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q50">
+        <v>1877.72</v>
+      </c>
+      <c r="S50" t="s">
+        <v>107</v>
+      </c>
+      <c r="T50" t="s">
+        <v>133</v>
+      </c>
+      <c r="U50">
+        <v>1877.72</v>
+      </c>
+      <c r="V50">
+        <v>54460</v>
+      </c>
+      <c r="W50">
+        <v>37554.4</v>
+      </c>
+      <c r="X50">
+        <v>31.04223283143591</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
+      <c r="A51">
+        <v>787000</v>
+      </c>
+      <c r="B51" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51">
+        <v>90008</v>
+      </c>
+      <c r="E51">
+        <v>2024</v>
+      </c>
+      <c r="F51" t="s">
+        <v>37</v>
+      </c>
+      <c r="G51" t="s">
+        <v>38</v>
+      </c>
       <c r="I51">
         <v>50</v>
       </c>
       <c r="J51">
-        <v>603269</v>
+        <v>423374</v>
       </c>
       <c r="K51" t="s">
-        <v>62</v>
-      </c>
-      <c r="L51" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="9:35">
+        <v>68</v>
+      </c>
+      <c r="M51">
+        <v>11732</v>
+      </c>
+      <c r="N51">
+        <v>12</v>
+      </c>
+      <c r="O51" t="s">
+        <v>84</v>
+      </c>
+      <c r="P51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
+      <c r="A52">
+        <v>787000</v>
+      </c>
+      <c r="B52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52">
+        <v>90008</v>
+      </c>
+      <c r="E52">
+        <v>2024</v>
+      </c>
+      <c r="F52" t="s">
+        <v>37</v>
+      </c>
+      <c r="G52" t="s">
+        <v>38</v>
+      </c>
       <c r="I52">
         <v>51</v>
       </c>
       <c r="J52">
-        <v>606522</v>
+        <v>430063</v>
       </c>
       <c r="K52" t="s">
-        <v>63</v>
-      </c>
-      <c r="L52" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="9:35">
+        <v>69</v>
+      </c>
+      <c r="M52">
+        <v>11732</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52" t="s">
+        <v>84</v>
+      </c>
+      <c r="P52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
+      <c r="A53">
+        <v>787000</v>
+      </c>
+      <c r="B53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53">
+        <v>90008</v>
+      </c>
+      <c r="E53">
+        <v>2024</v>
+      </c>
+      <c r="F53" t="s">
+        <v>37</v>
+      </c>
+      <c r="G53" t="s">
+        <v>38</v>
+      </c>
       <c r="I53">
         <v>52</v>
       </c>
       <c r="J53">
-        <v>373481</v>
+        <v>474330</v>
       </c>
       <c r="K53" t="s">
+        <v>70</v>
+      </c>
+      <c r="M53">
+        <v>8042</v>
+      </c>
+      <c r="N53">
+        <v>12</v>
+      </c>
+      <c r="O53" t="s">
+        <v>84</v>
+      </c>
+      <c r="P53" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q53">
+        <v>5100</v>
+      </c>
+      <c r="S53" t="s">
+        <v>108</v>
+      </c>
+      <c r="T53" t="s">
+        <v>134</v>
+      </c>
+      <c r="U53">
+        <v>5100</v>
+      </c>
+      <c r="V53">
+        <v>96504</v>
+      </c>
+      <c r="W53">
+        <v>61200</v>
+      </c>
+      <c r="X53">
+        <v>36.58293956727182</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
+      <c r="A54">
+        <v>787000</v>
+      </c>
+      <c r="B54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54">
+        <v>90008</v>
+      </c>
+      <c r="E54">
+        <v>2024</v>
+      </c>
+      <c r="F54" t="s">
+        <v>37</v>
+      </c>
+      <c r="G54" t="s">
+        <v>38</v>
+      </c>
+      <c r="I54">
+        <v>53</v>
+      </c>
+      <c r="J54">
+        <v>457010</v>
+      </c>
+      <c r="K54" t="s">
+        <v>71</v>
+      </c>
+      <c r="M54">
+        <v>8042</v>
+      </c>
+      <c r="N54">
+        <v>3</v>
+      </c>
+      <c r="O54" t="s">
+        <v>84</v>
+      </c>
+      <c r="P54" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q54">
+        <v>5100</v>
+      </c>
+      <c r="S54" t="s">
+        <v>108</v>
+      </c>
+      <c r="T54" t="s">
+        <v>134</v>
+      </c>
+      <c r="U54">
+        <v>5100</v>
+      </c>
+      <c r="V54">
+        <v>24126</v>
+      </c>
+      <c r="W54">
+        <v>15300</v>
+      </c>
+      <c r="X54">
+        <v>36.58293956727182</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
+      <c r="I55">
+        <v>54</v>
+      </c>
+      <c r="J55">
+        <v>451529</v>
+      </c>
+      <c r="K55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
+      <c r="I56">
+        <v>55</v>
+      </c>
+      <c r="J56">
+        <v>317762</v>
+      </c>
+      <c r="K56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
+      <c r="A57">
+        <v>787000</v>
+      </c>
+      <c r="B57" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57">
+        <v>90008</v>
+      </c>
+      <c r="E57">
+        <v>2024</v>
+      </c>
+      <c r="F57" t="s">
+        <v>37</v>
+      </c>
+      <c r="G57" t="s">
+        <v>38</v>
+      </c>
+      <c r="I57">
+        <v>56</v>
+      </c>
+      <c r="J57">
+        <v>449988</v>
+      </c>
+      <c r="K57" t="s">
+        <v>74</v>
+      </c>
+      <c r="M57">
+        <v>1454</v>
+      </c>
+      <c r="N57">
+        <v>26</v>
+      </c>
+      <c r="O57" t="s">
+        <v>84</v>
+      </c>
+      <c r="P57" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q57">
+        <v>704.47</v>
+      </c>
+      <c r="S57" t="s">
+        <v>109</v>
+      </c>
+      <c r="T57" t="s">
+        <v>135</v>
+      </c>
+      <c r="U57">
+        <v>704.47</v>
+      </c>
+      <c r="V57">
+        <v>37804</v>
+      </c>
+      <c r="W57">
+        <v>18316.22</v>
+      </c>
+      <c r="X57">
+        <v>51.54951856946355</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
+      <c r="A58">
+        <v>787000</v>
+      </c>
+      <c r="B58" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58">
+        <v>90008</v>
+      </c>
+      <c r="E58">
+        <v>2024</v>
+      </c>
+      <c r="F58" t="s">
+        <v>37</v>
+      </c>
+      <c r="G58" t="s">
+        <v>38</v>
+      </c>
+      <c r="I58">
+        <v>57</v>
+      </c>
+      <c r="J58">
+        <v>483292</v>
+      </c>
+      <c r="K58" t="s">
+        <v>75</v>
+      </c>
+      <c r="M58">
+        <v>254</v>
+      </c>
+      <c r="N58">
+        <v>22</v>
+      </c>
+      <c r="O58" t="s">
+        <v>84</v>
+      </c>
+      <c r="P58" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q58">
+        <v>110</v>
+      </c>
+      <c r="S58" t="s">
+        <v>110</v>
+      </c>
+      <c r="T58" t="s">
+        <v>110</v>
+      </c>
+      <c r="U58">
+        <v>110</v>
+      </c>
+      <c r="V58">
+        <v>5588</v>
+      </c>
+      <c r="W58">
+        <v>2420</v>
+      </c>
+      <c r="X58">
+        <v>56.69291338582677</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
+      <c r="I59">
+        <v>58</v>
+      </c>
+      <c r="J59">
+        <v>451184</v>
+      </c>
+      <c r="K59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
+      <c r="I60">
+        <v>59</v>
+      </c>
+      <c r="J60">
+        <v>255706</v>
+      </c>
+      <c r="K60" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
+      <c r="A61">
+        <v>787000</v>
+      </c>
+      <c r="B61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61">
+        <v>90008</v>
+      </c>
+      <c r="E61">
+        <v>2024</v>
+      </c>
+      <c r="F61" t="s">
+        <v>37</v>
+      </c>
+      <c r="G61" t="s">
+        <v>38</v>
+      </c>
+      <c r="I61">
+        <v>60</v>
+      </c>
+      <c r="J61">
+        <v>453490</v>
+      </c>
+      <c r="K61" t="s">
+        <v>78</v>
+      </c>
+      <c r="M61">
+        <v>222</v>
+      </c>
+      <c r="N61">
+        <v>111</v>
+      </c>
+      <c r="O61" t="s">
+        <v>84</v>
+      </c>
+      <c r="P61" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q61">
+        <v>215</v>
+      </c>
+      <c r="S61" t="s">
+        <v>111</v>
+      </c>
+      <c r="T61" t="s">
+        <v>111</v>
+      </c>
+      <c r="U61">
+        <v>215</v>
+      </c>
+      <c r="V61">
+        <v>24642</v>
+      </c>
+      <c r="W61">
+        <v>23865</v>
+      </c>
+      <c r="X61">
+        <v>3.153153153153154</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
+      <c r="A62">
+        <v>787000</v>
+      </c>
+      <c r="B62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62">
+        <v>90008</v>
+      </c>
+      <c r="E62">
+        <v>2024</v>
+      </c>
+      <c r="F62" t="s">
+        <v>37</v>
+      </c>
+      <c r="G62" t="s">
+        <v>38</v>
+      </c>
+      <c r="I62">
+        <v>61</v>
+      </c>
+      <c r="J62">
+        <v>260540</v>
+      </c>
+      <c r="K62" t="s">
+        <v>79</v>
+      </c>
+      <c r="M62">
+        <v>8124</v>
+      </c>
+      <c r="N62">
+        <v>12</v>
+      </c>
+      <c r="O62" t="s">
+        <v>84</v>
+      </c>
+      <c r="P62" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q62">
+        <v>3334.96</v>
+      </c>
+      <c r="S62" t="s">
+        <v>112</v>
+      </c>
+      <c r="T62" t="s">
+        <v>112</v>
+      </c>
+      <c r="U62">
+        <v>3334.96</v>
+      </c>
+      <c r="V62">
+        <v>97488</v>
+      </c>
+      <c r="W62">
+        <v>40019.52</v>
+      </c>
+      <c r="X62">
+        <v>58.94928606597736</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
+      <c r="A63">
+        <v>787000</v>
+      </c>
+      <c r="B63" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63">
+        <v>90008</v>
+      </c>
+      <c r="E63">
+        <v>2024</v>
+      </c>
+      <c r="F63" t="s">
+        <v>37</v>
+      </c>
+      <c r="G63" t="s">
+        <v>38</v>
+      </c>
+      <c r="I63">
+        <v>62</v>
+      </c>
+      <c r="J63">
+        <v>254906</v>
+      </c>
+      <c r="K63" t="s">
+        <v>80</v>
+      </c>
+      <c r="M63">
+        <v>8124</v>
+      </c>
+      <c r="N63">
+        <v>4</v>
+      </c>
+      <c r="O63" t="s">
+        <v>84</v>
+      </c>
+      <c r="P63" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q63">
+        <v>3251.58</v>
+      </c>
+      <c r="S63" t="s">
+        <v>112</v>
+      </c>
+      <c r="T63" t="s">
+        <v>112</v>
+      </c>
+      <c r="U63">
+        <v>3251.58</v>
+      </c>
+      <c r="V63">
+        <v>32496</v>
+      </c>
+      <c r="W63">
+        <v>13006.32</v>
+      </c>
+      <c r="X63">
+        <v>59.97562776957164</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26">
+      <c r="I64">
+        <v>63</v>
+      </c>
+      <c r="J64">
+        <v>483907</v>
+      </c>
+      <c r="K64" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35">
+      <c r="I65">
         <v>64</v>
       </c>
-      <c r="L53" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="9:35">
-      <c r="Y54" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA54" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB54" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC54" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD54" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE54" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF54" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG54" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH54" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI54" t="s">
+      <c r="J65">
+        <v>480490</v>
+      </c>
+      <c r="K65" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35">
+      <c r="A66">
+        <v>787000</v>
+      </c>
+      <c r="B66" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66">
+        <v>90008</v>
+      </c>
+      <c r="E66">
+        <v>2024</v>
+      </c>
+      <c r="F66" t="s">
+        <v>37</v>
+      </c>
+      <c r="G66" t="s">
+        <v>38</v>
+      </c>
+      <c r="I66">
+        <v>65</v>
+      </c>
+      <c r="J66">
+        <v>439607</v>
+      </c>
+      <c r="K66" t="s">
+        <v>83</v>
+      </c>
+      <c r="M66">
+        <v>577</v>
+      </c>
+      <c r="N66">
+        <v>19</v>
+      </c>
+      <c r="O66" t="s">
+        <v>84</v>
+      </c>
+      <c r="P66" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q66">
+        <v>338</v>
+      </c>
+      <c r="S66" t="s">
+        <v>113</v>
+      </c>
+      <c r="T66" t="s">
         <v>136</v>
+      </c>
+      <c r="U66">
+        <v>338</v>
+      </c>
+      <c r="V66">
+        <v>10963</v>
+      </c>
+      <c r="W66">
+        <v>6422</v>
+      </c>
+      <c r="X66">
+        <v>41.421143847487</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35">
+      <c r="A67">
+        <v>787000</v>
+      </c>
+      <c r="B67" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67" t="s">
+        <v>36</v>
+      </c>
+      <c r="D67">
+        <v>90008</v>
+      </c>
+      <c r="E67">
+        <v>2024</v>
+      </c>
+      <c r="F67" t="s">
+        <v>37</v>
+      </c>
+      <c r="G67" t="s">
+        <v>38</v>
+      </c>
+      <c r="I67">
+        <v>66</v>
+      </c>
+      <c r="J67">
+        <v>298065</v>
+      </c>
+      <c r="K67" t="s">
+        <v>67</v>
+      </c>
+      <c r="M67">
+        <v>2509</v>
+      </c>
+      <c r="N67">
+        <v>26</v>
+      </c>
+      <c r="O67" t="s">
+        <v>84</v>
+      </c>
+      <c r="P67" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q67">
+        <v>1715</v>
+      </c>
+      <c r="S67" t="s">
+        <v>114</v>
+      </c>
+      <c r="T67" t="s">
+        <v>137</v>
+      </c>
+      <c r="U67">
+        <v>1715</v>
+      </c>
+      <c r="V67">
+        <v>65234</v>
+      </c>
+      <c r="W67">
+        <v>44590</v>
+      </c>
+      <c r="X67">
+        <v>31.64607413312076</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35">
+      <c r="A68">
+        <v>787000</v>
+      </c>
+      <c r="B68" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68">
+        <v>90008</v>
+      </c>
+      <c r="E68">
+        <v>2024</v>
+      </c>
+      <c r="F68" t="s">
+        <v>37</v>
+      </c>
+      <c r="G68" t="s">
+        <v>38</v>
+      </c>
+      <c r="I68">
+        <v>67</v>
+      </c>
+      <c r="J68">
+        <v>423374</v>
+      </c>
+      <c r="K68" t="s">
+        <v>68</v>
+      </c>
+      <c r="M68">
+        <v>2509</v>
+      </c>
+      <c r="N68">
+        <v>8</v>
+      </c>
+      <c r="O68" t="s">
+        <v>84</v>
+      </c>
+      <c r="P68" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q68">
+        <v>1715</v>
+      </c>
+      <c r="S68" t="s">
+        <v>114</v>
+      </c>
+      <c r="T68" t="s">
+        <v>137</v>
+      </c>
+      <c r="U68">
+        <v>1715</v>
+      </c>
+      <c r="V68">
+        <v>20072</v>
+      </c>
+      <c r="W68">
+        <v>13720</v>
+      </c>
+      <c r="X68">
+        <v>31.64607413312076</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35">
+      <c r="A69">
+        <v>787000</v>
+      </c>
+      <c r="B69" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69">
+        <v>90008</v>
+      </c>
+      <c r="E69">
+        <v>2024</v>
+      </c>
+      <c r="F69" t="s">
+        <v>37</v>
+      </c>
+      <c r="G69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I69">
+        <v>68</v>
+      </c>
+      <c r="J69">
+        <v>430063</v>
+      </c>
+      <c r="K69" t="s">
+        <v>69</v>
+      </c>
+      <c r="M69">
+        <v>6619</v>
+      </c>
+      <c r="N69">
+        <v>18</v>
+      </c>
+      <c r="O69" t="s">
+        <v>84</v>
+      </c>
+      <c r="P69" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35">
+      <c r="A70">
+        <v>787000</v>
+      </c>
+      <c r="B70" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" t="s">
+        <v>36</v>
+      </c>
+      <c r="D70">
+        <v>90008</v>
+      </c>
+      <c r="E70">
+        <v>2024</v>
+      </c>
+      <c r="F70" t="s">
+        <v>37</v>
+      </c>
+      <c r="G70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I70">
+        <v>69</v>
+      </c>
+      <c r="J70">
+        <v>474330</v>
+      </c>
+      <c r="K70" t="s">
+        <v>70</v>
+      </c>
+      <c r="M70">
+        <v>6619</v>
+      </c>
+      <c r="N70">
+        <v>5</v>
+      </c>
+      <c r="O70" t="s">
+        <v>84</v>
+      </c>
+      <c r="P70" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q70">
+        <v>4699.1</v>
+      </c>
+      <c r="S70" t="s">
+        <v>115</v>
+      </c>
+      <c r="T70" t="s">
+        <v>138</v>
+      </c>
+      <c r="U70">
+        <v>4699.1</v>
+      </c>
+      <c r="V70">
+        <v>33095</v>
+      </c>
+      <c r="W70">
+        <v>23495.5</v>
+      </c>
+      <c r="X70">
+        <v>29.00589212872034</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35">
+      <c r="I71">
+        <v>70</v>
+      </c>
+      <c r="J71">
+        <v>457010</v>
+      </c>
+      <c r="K71" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:35">
+      <c r="I72">
+        <v>71</v>
+      </c>
+      <c r="J72">
+        <v>451529</v>
+      </c>
+      <c r="K72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:35">
+      <c r="I73">
+        <v>72</v>
+      </c>
+      <c r="J73">
+        <v>317762</v>
+      </c>
+      <c r="K73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:35">
+      <c r="I74">
+        <v>73</v>
+      </c>
+      <c r="J74">
+        <v>449988</v>
+      </c>
+      <c r="K74" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:35">
+      <c r="I75">
+        <v>74</v>
+      </c>
+      <c r="J75">
+        <v>483292</v>
+      </c>
+      <c r="K75" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:35">
+      <c r="I76">
+        <v>75</v>
+      </c>
+      <c r="J76">
+        <v>451184</v>
+      </c>
+      <c r="K76" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:35">
+      <c r="I77">
+        <v>76</v>
+      </c>
+      <c r="J77">
+        <v>255706</v>
+      </c>
+      <c r="K77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:35">
+      <c r="I78">
+        <v>77</v>
+      </c>
+      <c r="J78">
+        <v>453490</v>
+      </c>
+      <c r="K78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:35">
+      <c r="I79">
+        <v>78</v>
+      </c>
+      <c r="J79">
+        <v>260540</v>
+      </c>
+      <c r="K79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:35">
+      <c r="Y80" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE80" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF80" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG80" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH80" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI80" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
